--- a/client/test_results/filtered_edge_test_results.xlsx
+++ b/client/test_results/filtered_edge_test_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.519831418991089</v>
+        <v>0.6672711372375488</v>
       </c>
       <c r="D2" t="n">
         <v>7.972</v>
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9465761184692383</v>
+        <v>0.4321568012237549</v>
       </c>
       <c r="D3" t="n">
         <v>7.972</v>
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7260758876800537</v>
+        <v>0.6069910526275635</v>
       </c>
       <c r="D4" t="n">
         <v>7.308</v>
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7091705799102783</v>
+        <v>0.7203068733215332</v>
       </c>
       <c r="D5" t="n">
         <v>7.308</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3559727668762207</v>
+        <v>0.224308967590332</v>
       </c>
       <c r="D6" t="n">
         <v>6.017</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3451504707336426</v>
+        <v>0.2178268432617188</v>
       </c>
       <c r="D7" t="n">
         <v>6.017</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3142621517181396</v>
+        <v>0.2365880012512207</v>
       </c>
       <c r="D8" t="n">
         <v>5.353</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4546670913696289</v>
+        <v>0.23577880859375</v>
       </c>
       <c r="D9" t="n">
         <v>5.353</v>
@@ -593,7 +593,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4659523963928223</v>
+        <v>0.3554270267486572</v>
       </c>
       <c r="D10" t="n">
         <v>67.27800000000001</v>
@@ -609,7 +609,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5071597099304199</v>
+        <v>0.2591707706451416</v>
       </c>
       <c r="D11" t="n">
         <v>73.413</v>
@@ -625,7 +625,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>8.159289598464966</v>
+        <v>1.180288791656494</v>
       </c>
       <c r="D12" t="n">
         <v>56.173</v>
@@ -641,7 +641,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.015538930892944</v>
+        <v>0.6191408634185791</v>
       </c>
       <c r="D13" t="n">
         <v>73.245</v>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7675983905792236</v>
+        <v>0.4552199840545654</v>
       </c>
       <c r="D14" t="n">
         <v>8.17</v>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8015987873077393</v>
+        <v>0.4576971530914307</v>
       </c>
       <c r="D15" t="n">
         <v>8.17</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7671980857849121</v>
+        <v>0.7763431072235107</v>
       </c>
       <c r="D16" t="n">
         <v>7.326</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7888894081115723</v>
+        <v>0.6328058242797852</v>
       </c>
       <c r="D17" t="n">
         <v>7.326</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5673866271972656</v>
+        <v>0.2371830940246582</v>
       </c>
       <c r="D18" t="n">
         <v>6.215</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6466600894927979</v>
+        <v>0.2255909442901611</v>
       </c>
       <c r="D19" t="n">
         <v>6.215</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5871436595916748</v>
+        <v>0.2602841854095459</v>
       </c>
       <c r="D20" t="n">
         <v>5.371</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5883533954620361</v>
+        <v>0.2583858966827393</v>
       </c>
       <c r="D21" t="n">
         <v>5.371</v>
@@ -785,7 +785,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5932548046112061</v>
+        <v>0.2893581390380859</v>
       </c>
       <c r="D22" t="n">
         <v>64.398</v>
@@ -801,7 +801,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6595170497894287</v>
+        <v>0.2859761714935303</v>
       </c>
       <c r="D23" t="n">
         <v>522.806</v>
@@ -817,7 +817,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.282124757766724</v>
+        <v>0.6115460395812988</v>
       </c>
       <c r="D24" t="n">
         <v>58.093</v>
@@ -833,7 +833,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.200640439987183</v>
+        <v>0.8260171413421631</v>
       </c>
       <c r="D25" t="n">
         <v>522.668</v>

--- a/client/test_results/filtered_edge_test_results.xlsx
+++ b/client/test_results/filtered_edge_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6672711372375488</v>
+        <v>0.8308610916137695</v>
       </c>
       <c r="D2" t="n">
-        <v>7.972</v>
+        <v>113.882</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4321568012237549</v>
+        <v>0.7898819446563721</v>
       </c>
       <c r="D3" t="n">
-        <v>7.972</v>
+        <v>113.882</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6069910526275635</v>
+        <v>0.847224235534668</v>
       </c>
       <c r="D4" t="n">
-        <v>7.308</v>
+        <v>36.058</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7203068733215332</v>
+        <v>0.8630220890045166</v>
       </c>
       <c r="D5" t="n">
-        <v>7.308</v>
+        <v>36.058</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.224308967590332</v>
+        <v>0.53633713722229</v>
       </c>
       <c r="D6" t="n">
-        <v>6.017</v>
+        <v>34.767</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2178268432617188</v>
+        <v>0.5544850826263428</v>
       </c>
       <c r="D7" t="n">
-        <v>6.017</v>
+        <v>34.767</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2365880012512207</v>
+        <v>0.4966812133789062</v>
       </c>
       <c r="D8" t="n">
-        <v>5.353</v>
+        <v>34.103</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.23577880859375</v>
+        <v>0.5107018947601318</v>
       </c>
       <c r="D9" t="n">
-        <v>5.353</v>
+        <v>34.103</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3554270267486572</v>
+        <v>0.5174996852874756</v>
       </c>
       <c r="D10" t="n">
-        <v>67.27800000000001</v>
+        <v>96.02800000000001</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2591707706451416</v>
+        <v>0.5235030651092529</v>
       </c>
       <c r="D11" t="n">
-        <v>73.413</v>
+        <v>102.163</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.180288791656494</v>
+        <v>1.802199125289917</v>
       </c>
       <c r="D12" t="n">
-        <v>56.173</v>
+        <v>162.083</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6191408634185791</v>
+        <v>1.739159107208252</v>
       </c>
       <c r="D13" t="n">
-        <v>73.245</v>
+        <v>179.155</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4552199840545654</v>
+        <v>0.6431260108947754</v>
       </c>
       <c r="D14" t="n">
-        <v>8.17</v>
+        <v>36.92</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4576971530914307</v>
+        <v>0.8847520351409912</v>
       </c>
       <c r="D15" t="n">
-        <v>8.17</v>
+        <v>114.08</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7763431072235107</v>
+        <v>0.8522911071777344</v>
       </c>
       <c r="D16" t="n">
-        <v>7.326</v>
+        <v>36.076</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6328058242797852</v>
+        <v>0.8634858131408691</v>
       </c>
       <c r="D17" t="n">
-        <v>7.326</v>
+        <v>36.076</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2371830940246582</v>
+        <v>0.5159311294555664</v>
       </c>
       <c r="D18" t="n">
-        <v>6.215</v>
+        <v>34.965</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2255909442901611</v>
+        <v>0.6406610012054443</v>
       </c>
       <c r="D19" t="n">
-        <v>6.215</v>
+        <v>34.965</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2602841854095459</v>
+        <v>0.5183050632476807</v>
       </c>
       <c r="D20" t="n">
-        <v>5.371</v>
+        <v>34.121</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +769,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2583858966827393</v>
+        <v>0.5032608509063721</v>
       </c>
       <c r="D21" t="n">
-        <v>5.371</v>
+        <v>34.121</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2893581390380859</v>
+        <v>0.5358080863952637</v>
       </c>
       <c r="D22" t="n">
-        <v>64.398</v>
+        <v>93.148</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2859761714935303</v>
+        <v>0.5264768600463867</v>
       </c>
       <c r="D23" t="n">
-        <v>522.806</v>
+        <v>551.556</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6115460395812988</v>
+        <v>1.762276172637939</v>
       </c>
       <c r="D24" t="n">
-        <v>58.093</v>
+        <v>164.003</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8260171413421631</v>
+        <v>2.026525974273682</v>
       </c>
       <c r="D25" t="n">
-        <v>522.668</v>
+        <v>628.578</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_edge_test_results.xlsx
+++ b/client/test_results/filtered_edge_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8308610916137695</v>
+        <v>1.994858980178833</v>
       </c>
       <c r="D2" t="n">
-        <v>113.882</v>
+        <v>115.378</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7898819446563721</v>
+        <v>1.985627889633179</v>
       </c>
       <c r="D3" t="n">
-        <v>113.882</v>
+        <v>115.378</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.847224235534668</v>
+        <v>2.332525014877319</v>
       </c>
       <c r="D4" t="n">
-        <v>36.058</v>
+        <v>37.554</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8630220890045166</v>
+        <v>2.368911027908325</v>
       </c>
       <c r="D5" t="n">
-        <v>36.058</v>
+        <v>37.554</v>
       </c>
     </row>
     <row r="6">
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.53633713722229</v>
+        <v>0.5153720378875732</v>
       </c>
       <c r="D6" t="n">
         <v>34.767</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5544850826263428</v>
+        <v>0.5148220062255859</v>
       </c>
       <c r="D7" t="n">
         <v>34.767</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4966812133789062</v>
+        <v>0.516071081161499</v>
       </c>
       <c r="D8" t="n">
         <v>34.103</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5107018947601318</v>
+        <v>0.5124249458312988</v>
       </c>
       <c r="D9" t="n">
         <v>34.103</v>
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5174996852874756</v>
+        <v>1.190322875976562</v>
       </c>
       <c r="D10" t="n">
-        <v>96.02800000000001</v>
+        <v>206.002</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5235030651092529</v>
+        <v>1.133629083633423</v>
       </c>
       <c r="D11" t="n">
-        <v>102.163</v>
+        <v>214.191</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.802199125289917</v>
+        <v>2.44835090637207</v>
       </c>
       <c r="D12" t="n">
-        <v>162.083</v>
+        <v>191.974</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.739159107208252</v>
+        <v>2.360017061233521</v>
       </c>
       <c r="D13" t="n">
-        <v>179.155</v>
+        <v>214.043</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6431260108947754</v>
+        <v>1.997656106948853</v>
       </c>
       <c r="D14" t="n">
-        <v>36.92</v>
+        <v>115.576</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8847520351409912</v>
+        <v>1.985384941101074</v>
       </c>
       <c r="D15" t="n">
-        <v>114.08</v>
+        <v>115.576</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8522911071777344</v>
+        <v>2.372745990753174</v>
       </c>
       <c r="D16" t="n">
-        <v>36.076</v>
+        <v>37.572</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8634858131408691</v>
+        <v>2.48853588104248</v>
       </c>
       <c r="D17" t="n">
-        <v>36.076</v>
+        <v>37.572</v>
       </c>
     </row>
     <row r="18">
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5159311294555664</v>
+        <v>0.5158729553222656</v>
       </c>
       <c r="D18" t="n">
         <v>34.965</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6406610012054443</v>
+        <v>0.5036756992340088</v>
       </c>
       <c r="D19" t="n">
         <v>34.965</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5183050632476807</v>
+        <v>0.5221130847930908</v>
       </c>
       <c r="D20" t="n">
         <v>34.121</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5032608509063721</v>
+        <v>0.5121068954467773</v>
       </c>
       <c r="D21" t="n">
         <v>34.121</v>
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5358080863952637</v>
+        <v>1.161067962646484</v>
       </c>
       <c r="D22" t="n">
-        <v>93.148</v>
+        <v>206.231</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5264768600463867</v>
+        <v>1.149776935577393</v>
       </c>
       <c r="D23" t="n">
-        <v>551.556</v>
+        <v>1237.062</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.762276172637939</v>
+        <v>2.446647882461548</v>
       </c>
       <c r="D24" t="n">
-        <v>164.003</v>
+        <v>197.461</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>2.026525974273682</v>
+        <v>2.650768041610718</v>
       </c>
       <c r="D25" t="n">
-        <v>628.578</v>
+        <v>1236.944</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_edge_test_results.xlsx
+++ b/client/test_results/filtered_edge_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8308610916137695</v>
+        <v>1.998263120651245</v>
       </c>
       <c r="D2" t="n">
-        <v>113.882</v>
+        <v>115.378</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7898819446563721</v>
+        <v>2.000576972961426</v>
       </c>
       <c r="D3" t="n">
-        <v>113.882</v>
+        <v>115.378</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.847224235534668</v>
+        <v>2.377609968185425</v>
       </c>
       <c r="D4" t="n">
-        <v>36.058</v>
+        <v>37.554</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8630220890045166</v>
+        <v>2.347087860107422</v>
       </c>
       <c r="D5" t="n">
-        <v>36.058</v>
+        <v>37.554</v>
       </c>
     </row>
     <row r="6">
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.53633713722229</v>
+        <v>0.5142350196838379</v>
       </c>
       <c r="D6" t="n">
         <v>34.767</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5544850826263428</v>
+        <v>0.5393741130828857</v>
       </c>
       <c r="D7" t="n">
         <v>34.767</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4966812133789062</v>
+        <v>0.5062401294708252</v>
       </c>
       <c r="D8" t="n">
         <v>34.103</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5107018947601318</v>
+        <v>0.4992189407348633</v>
       </c>
       <c r="D9" t="n">
         <v>34.103</v>
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5174996852874756</v>
+        <v>1.134001970291138</v>
       </c>
       <c r="D10" t="n">
-        <v>96.02800000000001</v>
+        <v>174.684</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5235030651092529</v>
+        <v>1.142389059066772</v>
       </c>
       <c r="D11" t="n">
-        <v>102.163</v>
+        <v>180.819</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.802199125289917</v>
+        <v>2.519633054733276</v>
       </c>
       <c r="D12" t="n">
-        <v>162.083</v>
+        <v>163.579</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.739159107208252</v>
+        <v>2.501928091049194</v>
       </c>
       <c r="D13" t="n">
-        <v>179.155</v>
+        <v>180.651</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6431260108947754</v>
+        <v>1.989068984985352</v>
       </c>
       <c r="D14" t="n">
-        <v>36.92</v>
+        <v>115.576</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8847520351409912</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>114.08</v>
+        <v>115.576</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8522911071777344</v>
+        <v>2.375293254852295</v>
       </c>
       <c r="D16" t="n">
-        <v>36.076</v>
+        <v>37.572</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8634858131408691</v>
+        <v>2.352958202362061</v>
       </c>
       <c r="D17" t="n">
-        <v>36.076</v>
+        <v>37.572</v>
       </c>
     </row>
     <row r="18">
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5159311294555664</v>
+        <v>0.6303339004516602</v>
       </c>
       <c r="D18" t="n">
         <v>34.965</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6406610012054443</v>
+        <v>0.5148921012878418</v>
       </c>
       <c r="D19" t="n">
         <v>34.965</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5183050632476807</v>
+        <v>0.4939630031585693</v>
       </c>
       <c r="D20" t="n">
         <v>34.121</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5032608509063721</v>
+        <v>0.4963021278381348</v>
       </c>
       <c r="D21" t="n">
         <v>34.121</v>
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5358080863952637</v>
+        <v>1.250018835067749</v>
       </c>
       <c r="D22" t="n">
-        <v>93.148</v>
+        <v>171.804</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5264768600463867</v>
+        <v>1.220667123794556</v>
       </c>
       <c r="D23" t="n">
-        <v>551.556</v>
+        <v>630.212</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.762276172637939</v>
+        <v>2.564792156219482</v>
       </c>
       <c r="D24" t="n">
-        <v>164.003</v>
+        <v>165.499</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>2.026525974273682</v>
+        <v>2.625092029571533</v>
       </c>
       <c r="D25" t="n">
-        <v>628.578</v>
+        <v>630.074</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_edge_test_results.xlsx
+++ b/client/test_results/filtered_edge_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8308610916137695</v>
+        <v>0.5945549011230469</v>
       </c>
       <c r="D2" t="n">
-        <v>113.882</v>
+        <v>36.722</v>
       </c>
     </row>
     <row r="3">
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7898819446563721</v>
+        <v>0.7909700870513916</v>
       </c>
       <c r="D3" t="n">
         <v>113.882</v>
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.847224235534668</v>
+        <v>0.8421008586883545</v>
       </c>
       <c r="D4" t="n">
         <v>36.058</v>
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8630220890045166</v>
+        <v>0.8466768264770508</v>
       </c>
       <c r="D5" t="n">
         <v>36.058</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.53633713722229</v>
+        <v>0.5248260498046875</v>
       </c>
       <c r="D6" t="n">
         <v>34.767</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5544850826263428</v>
+        <v>0.4884638786315918</v>
       </c>
       <c r="D7" t="n">
         <v>34.767</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4966812133789062</v>
+        <v>0.5074028968811035</v>
       </c>
       <c r="D8" t="n">
         <v>34.103</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5107018947601318</v>
+        <v>0.5018031597137451</v>
       </c>
       <c r="D9" t="n">
         <v>34.103</v>
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5174996852874756</v>
+        <v>0.6578967571258545</v>
       </c>
       <c r="D10" t="n">
-        <v>96.02800000000001</v>
+        <v>94.122</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5235030651092529</v>
+        <v>0.5045721530914307</v>
       </c>
       <c r="D11" t="n">
-        <v>102.163</v>
+        <v>114.48</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.802199125289917</v>
+        <v>1.529802083969116</v>
       </c>
       <c r="D12" t="n">
-        <v>162.083</v>
+        <v>160.726</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.739159107208252</v>
+        <v>1.471024036407471</v>
       </c>
       <c r="D13" t="n">
-        <v>179.155</v>
+        <v>114.521</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6431260108947754</v>
+        <v>0.7813549041748047</v>
       </c>
       <c r="D14" t="n">
-        <v>36.92</v>
+        <v>114.08</v>
       </c>
     </row>
     <row r="15">
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8847520351409912</v>
+        <v>0.8169007301330566</v>
       </c>
       <c r="D15" t="n">
         <v>114.08</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8522911071777344</v>
+        <v>0.8655071258544922</v>
       </c>
       <c r="D16" t="n">
         <v>36.076</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8634858131408691</v>
+        <v>0.8543081283569336</v>
       </c>
       <c r="D17" t="n">
         <v>36.076</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5159311294555664</v>
+        <v>0.5138130187988281</v>
       </c>
       <c r="D18" t="n">
         <v>34.965</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6406610012054443</v>
+        <v>0.5220077037811279</v>
       </c>
       <c r="D19" t="n">
         <v>34.965</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5183050632476807</v>
+        <v>0.5107228755950928</v>
       </c>
       <c r="D20" t="n">
         <v>34.121</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5032608509063721</v>
+        <v>0.5017127990722656</v>
       </c>
       <c r="D21" t="n">
         <v>34.121</v>
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5358080863952637</v>
+        <v>0.5165469646453857</v>
       </c>
       <c r="D22" t="n">
-        <v>93.148</v>
+        <v>91.369</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5264768600463867</v>
+        <v>0.5185470581054688</v>
       </c>
       <c r="D23" t="n">
-        <v>551.556</v>
+        <v>499.941</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.762276172637939</v>
+        <v>1.582381248474121</v>
       </c>
       <c r="D24" t="n">
-        <v>164.003</v>
+        <v>162.54</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>2.026525974273682</v>
+        <v>1.515124082565308</v>
       </c>
       <c r="D25" t="n">
-        <v>628.578</v>
+        <v>576.9829999999999</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_edge_test_results.xlsx
+++ b/client/test_results/filtered_edge_test_results.xlsx
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.998263120651245</v>
+        <v>2.00118088722229</v>
       </c>
       <c r="D2" t="n">
         <v>115.378</v>
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2.000576972961426</v>
+        <v>2.006192207336426</v>
       </c>
       <c r="D3" t="n">
         <v>115.378</v>
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.377609968185425</v>
+        <v>2.519798994064331</v>
       </c>
       <c r="D4" t="n">
         <v>37.554</v>
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.347087860107422</v>
+        <v>2.35501503944397</v>
       </c>
       <c r="D5" t="n">
         <v>37.554</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5142350196838379</v>
+        <v>0.5217380523681641</v>
       </c>
       <c r="D6" t="n">
         <v>34.767</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5393741130828857</v>
+        <v>0.5031807422637939</v>
       </c>
       <c r="D7" t="n">
         <v>34.767</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5062401294708252</v>
+        <v>0.503633975982666</v>
       </c>
       <c r="D8" t="n">
         <v>34.103</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4992189407348633</v>
+        <v>0.5110771656036377</v>
       </c>
       <c r="D9" t="n">
         <v>34.103</v>
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>1.134001970291138</v>
+        <v>1.131783008575439</v>
       </c>
       <c r="D10" t="n">
-        <v>174.684</v>
+        <v>172.778</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>1.142389059066772</v>
+        <v>1.109755992889404</v>
       </c>
       <c r="D11" t="n">
-        <v>180.819</v>
+        <v>193.136</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>2.519633054733276</v>
+        <v>2.210679054260254</v>
       </c>
       <c r="D12" t="n">
-        <v>163.579</v>
+        <v>162.222</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>2.501928091049194</v>
+        <v>2.391414880752563</v>
       </c>
       <c r="D13" t="n">
-        <v>180.651</v>
+        <v>193.177</v>
       </c>
     </row>
     <row r="14">
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.989068984985352</v>
+        <v>1.989177227020264</v>
       </c>
       <c r="D14" t="n">
         <v>115.576</v>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>2.004157781600952</v>
       </c>
       <c r="D15" t="n">
         <v>115.576</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>2.375293254852295</v>
+        <v>2.349467754364014</v>
       </c>
       <c r="D16" t="n">
         <v>37.572</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>2.352958202362061</v>
+        <v>2.344269275665283</v>
       </c>
       <c r="D17" t="n">
         <v>37.572</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6303339004516602</v>
+        <v>0.513944149017334</v>
       </c>
       <c r="D18" t="n">
         <v>34.965</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5148921012878418</v>
+        <v>0.5085799694061279</v>
       </c>
       <c r="D19" t="n">
         <v>34.965</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4939630031585693</v>
+        <v>0.5054137706756592</v>
       </c>
       <c r="D20" t="n">
         <v>34.121</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4963021278381348</v>
+        <v>0.4956212043762207</v>
       </c>
       <c r="D21" t="n">
         <v>34.121</v>
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>1.250018835067749</v>
+        <v>1.220472812652588</v>
       </c>
       <c r="D22" t="n">
-        <v>171.804</v>
+        <v>170.025</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>1.220667123794556</v>
+        <v>1.226037979125977</v>
       </c>
       <c r="D23" t="n">
-        <v>630.212</v>
+        <v>578.597</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>2.564792156219482</v>
+        <v>2.361420154571533</v>
       </c>
       <c r="D24" t="n">
-        <v>165.499</v>
+        <v>164.036</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>2.625092029571533</v>
+        <v>2.492705106735229</v>
       </c>
       <c r="D25" t="n">
-        <v>630.074</v>
+        <v>578.479</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_edge_test_results.xlsx
+++ b/client/test_results/filtered_edge_test_results.xlsx
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.994858980178833</v>
+        <v>2.010088920593262</v>
       </c>
       <c r="D2" t="n">
         <v>115.378</v>
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.985627889633179</v>
+        <v>1.999326944351196</v>
       </c>
       <c r="D3" t="n">
         <v>115.378</v>
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.332525014877319</v>
+        <v>2.353641033172607</v>
       </c>
       <c r="D4" t="n">
         <v>37.554</v>
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.368911027908325</v>
+        <v>2.361555814743042</v>
       </c>
       <c r="D5" t="n">
         <v>37.554</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5153720378875732</v>
+        <v>0.5129399299621582</v>
       </c>
       <c r="D6" t="n">
         <v>34.767</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5148220062255859</v>
+        <v>0.4969792366027832</v>
       </c>
       <c r="D7" t="n">
         <v>34.767</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.516071081161499</v>
+        <v>0.5059220790863037</v>
       </c>
       <c r="D8" t="n">
         <v>34.103</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5124249458312988</v>
+        <v>0.5021600723266602</v>
       </c>
       <c r="D9" t="n">
         <v>34.103</v>
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>1.190322875976562</v>
+        <v>1.164942979812622</v>
       </c>
       <c r="D10" t="n">
-        <v>206.002</v>
+        <v>201.622</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>1.133629083633423</v>
+        <v>1.097680330276489</v>
       </c>
       <c r="D11" t="n">
-        <v>214.191</v>
+        <v>241.523</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>2.44835090637207</v>
+        <v>2.390480995178223</v>
       </c>
       <c r="D12" t="n">
-        <v>191.974</v>
+        <v>189.106</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>2.360017061233521</v>
+        <v>2.239223003387451</v>
       </c>
       <c r="D13" t="n">
-        <v>214.043</v>
+        <v>241.564</v>
       </c>
     </row>
     <row r="14">
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.997656106948853</v>
+        <v>1.978825330734253</v>
       </c>
       <c r="D14" t="n">
         <v>115.576</v>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.985384941101074</v>
+        <v>2.003884792327881</v>
       </c>
       <c r="D15" t="n">
         <v>115.576</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>2.372745990753174</v>
+        <v>2.36372709274292</v>
       </c>
       <c r="D16" t="n">
         <v>37.572</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>2.48853588104248</v>
+        <v>2.325971126556396</v>
       </c>
       <c r="D17" t="n">
         <v>37.572</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5158729553222656</v>
+        <v>0.6429259777069092</v>
       </c>
       <c r="D18" t="n">
         <v>34.965</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5036756992340088</v>
+        <v>0.5046918392181396</v>
       </c>
       <c r="D19" t="n">
         <v>34.965</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5221130847930908</v>
+        <v>0.511991024017334</v>
       </c>
       <c r="D20" t="n">
         <v>34.121</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5121068954467773</v>
+        <v>0.5251882076263428</v>
       </c>
       <c r="D21" t="n">
         <v>34.121</v>
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>1.161067962646484</v>
+        <v>1.214436769485474</v>
       </c>
       <c r="D22" t="n">
-        <v>206.231</v>
+        <v>202.266</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>1.149776935577393</v>
+        <v>1.167345762252808</v>
       </c>
       <c r="D23" t="n">
-        <v>1237.062</v>
+        <v>1020.219</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>2.446647882461548</v>
+        <v>2.491644859313965</v>
       </c>
       <c r="D24" t="n">
-        <v>197.461</v>
+        <v>174.565</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>2.650768041610718</v>
+        <v>2.388396739959717</v>
       </c>
       <c r="D25" t="n">
-        <v>1236.944</v>
+        <v>672.716</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_edge_test_results.xlsx
+++ b/client/test_results/filtered_edge_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8308610916137695</v>
+        <v>0.6681630611419678</v>
       </c>
       <c r="D2" t="n">
-        <v>113.882</v>
+        <v>36.722</v>
       </c>
     </row>
     <row r="3">
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7898819446563721</v>
+        <v>0.7940709590911865</v>
       </c>
       <c r="D3" t="n">
         <v>113.882</v>
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.847224235534668</v>
+        <v>0.8715760707855225</v>
       </c>
       <c r="D4" t="n">
         <v>36.058</v>
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8630220890045166</v>
+        <v>0.96396803855896</v>
       </c>
       <c r="D5" t="n">
         <v>36.058</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.53633713722229</v>
+        <v>0.53131103515625</v>
       </c>
       <c r="D6" t="n">
         <v>34.767</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5544850826263428</v>
+        <v>0.5052649974822998</v>
       </c>
       <c r="D7" t="n">
         <v>34.767</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4966812133789062</v>
+        <v>0.4998562335968018</v>
       </c>
       <c r="D8" t="n">
         <v>34.103</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5107018947601318</v>
+        <v>0.5014448165893555</v>
       </c>
       <c r="D9" t="n">
         <v>34.103</v>
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5174996852874756</v>
+        <v>0.505173921585083</v>
       </c>
       <c r="D10" t="n">
-        <v>96.02800000000001</v>
+        <v>94.122</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5235030651092529</v>
+        <v>0.514009952545166</v>
       </c>
       <c r="D11" t="n">
-        <v>102.163</v>
+        <v>114.48</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.802199125289917</v>
+        <v>1.424434900283813</v>
       </c>
       <c r="D12" t="n">
-        <v>162.083</v>
+        <v>187.61</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.739159107208252</v>
+        <v>1.568948268890381</v>
       </c>
       <c r="D13" t="n">
-        <v>179.155</v>
+        <v>240.068</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6431260108947754</v>
+        <v>0.808629035949707</v>
       </c>
       <c r="D14" t="n">
-        <v>36.92</v>
+        <v>114.08</v>
       </c>
     </row>
     <row r="15">
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8847520351409912</v>
+        <v>0.8043930530548096</v>
       </c>
       <c r="D15" t="n">
         <v>114.08</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8522911071777344</v>
+        <v>0.8698790073394775</v>
       </c>
       <c r="D16" t="n">
         <v>36.076</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8634858131408691</v>
+        <v>0.8646781444549561</v>
       </c>
       <c r="D17" t="n">
         <v>36.076</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5159311294555664</v>
+        <v>0.5180399417877197</v>
       </c>
       <c r="D18" t="n">
         <v>34.965</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6406610012054443</v>
+        <v>0.5133869647979736</v>
       </c>
       <c r="D19" t="n">
         <v>34.965</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5183050632476807</v>
+        <v>0.6370968818664551</v>
       </c>
       <c r="D20" t="n">
         <v>34.121</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5032608509063721</v>
+        <v>0.523859977722168</v>
       </c>
       <c r="D21" t="n">
         <v>34.121</v>
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5358080863952637</v>
+        <v>0.5108799934387207</v>
       </c>
       <c r="D22" t="n">
-        <v>93.148</v>
+        <v>91.336</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5264768600463867</v>
+        <v>0.6016383171081543</v>
       </c>
       <c r="D23" t="n">
-        <v>551.556</v>
+        <v>515.522</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.762276172637939</v>
+        <v>1.584048748016357</v>
       </c>
       <c r="D24" t="n">
-        <v>164.003</v>
+        <v>162.565</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>2.026525974273682</v>
+        <v>1.529394149780273</v>
       </c>
       <c r="D25" t="n">
-        <v>628.578</v>
+        <v>592.564</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_edge_test_results.xlsx
+++ b/client/test_results/filtered_edge_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8308610916137695</v>
+        <v>0.5845108032226562</v>
       </c>
       <c r="D2" t="n">
-        <v>113.882</v>
+        <v>36.722</v>
       </c>
     </row>
     <row r="3">
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7898819446563721</v>
+        <v>0.8246860504150391</v>
       </c>
       <c r="D3" t="n">
         <v>113.882</v>
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.847224235534668</v>
+        <v>0.8449499607086182</v>
       </c>
       <c r="D4" t="n">
         <v>36.058</v>
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8630220890045166</v>
+        <v>0.8650350570678711</v>
       </c>
       <c r="D5" t="n">
         <v>36.058</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.53633713722229</v>
+        <v>0.5073418617248535</v>
       </c>
       <c r="D6" t="n">
         <v>34.767</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5544850826263428</v>
+        <v>0.5522360801696777</v>
       </c>
       <c r="D7" t="n">
         <v>34.767</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4966812133789062</v>
+        <v>0.5032610893249512</v>
       </c>
       <c r="D8" t="n">
         <v>34.103</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5107018947601318</v>
+        <v>0.5062317848205566</v>
       </c>
       <c r="D9" t="n">
         <v>34.103</v>
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5174996852874756</v>
+        <v>0.5362110137939453</v>
       </c>
       <c r="D10" t="n">
-        <v>96.02800000000001</v>
+        <v>122.966</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5235030651092529</v>
+        <v>0.5196249485015869</v>
       </c>
       <c r="D11" t="n">
-        <v>102.163</v>
+        <v>162.867</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.802199125289917</v>
+        <v>1.58526611328125</v>
       </c>
       <c r="D12" t="n">
-        <v>162.083</v>
+        <v>187.61</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.739159107208252</v>
+        <v>1.601675987243652</v>
       </c>
       <c r="D13" t="n">
-        <v>179.155</v>
+        <v>240.068</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6431260108947754</v>
+        <v>0.7884101867675781</v>
       </c>
       <c r="D14" t="n">
-        <v>36.92</v>
+        <v>114.08</v>
       </c>
     </row>
     <row r="15">
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8847520351409912</v>
+        <v>0.8061130046844482</v>
       </c>
       <c r="D15" t="n">
         <v>114.08</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8522911071777344</v>
+        <v>0.8690869808197021</v>
       </c>
       <c r="D16" t="n">
         <v>36.076</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8634858131408691</v>
+        <v>0.8642432689666748</v>
       </c>
       <c r="D17" t="n">
         <v>36.076</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5159311294555664</v>
+        <v>0.5070071220397949</v>
       </c>
       <c r="D18" t="n">
         <v>34.965</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6406610012054443</v>
+        <v>0.5122320652008057</v>
       </c>
       <c r="D19" t="n">
         <v>34.965</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5183050632476807</v>
+        <v>0.5035409927368164</v>
       </c>
       <c r="D20" t="n">
         <v>34.121</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5032608509063721</v>
+        <v>0.5015180110931396</v>
       </c>
       <c r="D21" t="n">
         <v>34.121</v>
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5358080863952637</v>
+        <v>0.5183188915252686</v>
       </c>
       <c r="D22" t="n">
-        <v>93.148</v>
+        <v>123.7</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5264768600463867</v>
+        <v>0.5444402694702148</v>
       </c>
       <c r="D23" t="n">
-        <v>551.556</v>
+        <v>869.9299999999999</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.762276172637939</v>
+        <v>1.386044025421143</v>
       </c>
       <c r="D24" t="n">
-        <v>164.003</v>
+        <v>193.448</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>2.026525974273682</v>
+        <v>1.746180057525635</v>
       </c>
       <c r="D25" t="n">
-        <v>628.578</v>
+        <v>946.972</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_edge_test_results.xlsx
+++ b/client/test_results/filtered_edge_test_results.xlsx
@@ -7,7 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_10" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5945549011230469</v>
+        <v>0.7636559009552002</v>
       </c>
       <c r="D2" t="n">
-        <v>36.722</v>
+        <v>116.054</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +490,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7909700870513916</v>
+        <v>0.6692578792572021</v>
       </c>
       <c r="D3" t="n">
-        <v>113.882</v>
+        <v>116.054</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8421008586883545</v>
+        <v>0.8001060485839844</v>
       </c>
       <c r="D4" t="n">
-        <v>36.058</v>
+        <v>38.23</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8466768264770508</v>
+        <v>0.7980883121490479</v>
       </c>
       <c r="D5" t="n">
-        <v>36.058</v>
+        <v>38.23</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5248260498046875</v>
+        <v>0.4729290008544922</v>
       </c>
       <c r="D6" t="n">
-        <v>34.767</v>
+        <v>36.939</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4884638786315918</v>
+        <v>0.4346761703491211</v>
       </c>
       <c r="D7" t="n">
-        <v>34.767</v>
+        <v>36.939</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5074028968811035</v>
+        <v>0.4409079551696777</v>
       </c>
       <c r="D8" t="n">
-        <v>34.103</v>
+        <v>36.275</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5018031597137451</v>
+        <v>0.4167890548706055</v>
       </c>
       <c r="D9" t="n">
-        <v>34.103</v>
+        <v>36.275</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6578967571258545</v>
+        <v>0.4302599430084229</v>
       </c>
       <c r="D10" t="n">
-        <v>94.122</v>
+        <v>125.138</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5045721530914307</v>
+        <v>0.4372489452362061</v>
       </c>
       <c r="D11" t="n">
-        <v>114.48</v>
+        <v>165.039</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.529802083969116</v>
+        <v>1.501375913619995</v>
       </c>
       <c r="D12" t="n">
-        <v>160.726</v>
+        <v>189.782</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +650,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.471024036407471</v>
+        <v>1.502344131469727</v>
       </c>
       <c r="D13" t="n">
-        <v>114.521</v>
+        <v>242.24</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +666,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7813549041748047</v>
+        <v>0.7165429592132568</v>
       </c>
       <c r="D14" t="n">
-        <v>114.08</v>
+        <v>116.252</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +682,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8169007301330566</v>
+        <v>0.6880941390991211</v>
       </c>
       <c r="D15" t="n">
-        <v>114.08</v>
+        <v>116.252</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8655071258544922</v>
+        <v>0.7911438941955566</v>
       </c>
       <c r="D16" t="n">
-        <v>36.076</v>
+        <v>38.248</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8543081283569336</v>
+        <v>0.807560920715332</v>
       </c>
       <c r="D17" t="n">
-        <v>36.076</v>
+        <v>38.248</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5138130187988281</v>
+        <v>0.5254027843475342</v>
       </c>
       <c r="D18" t="n">
-        <v>34.965</v>
+        <v>37.137</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5220077037811279</v>
+        <v>0.4167990684509277</v>
       </c>
       <c r="D19" t="n">
-        <v>34.965</v>
+        <v>37.137</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +762,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5107228755950928</v>
+        <v>0.4148721694946289</v>
       </c>
       <c r="D20" t="n">
-        <v>34.121</v>
+        <v>36.293</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5017127990722656</v>
+        <v>0.4321601390838623</v>
       </c>
       <c r="D21" t="n">
-        <v>34.121</v>
+        <v>36.293</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5165469646453857</v>
+        <v>0.4610319137573242</v>
       </c>
       <c r="D22" t="n">
-        <v>91.369</v>
+        <v>125.872</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5185470581054688</v>
+        <v>0.4232029914855957</v>
       </c>
       <c r="D23" t="n">
-        <v>499.941</v>
+        <v>872.102</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.582381248474121</v>
+        <v>1.454376935958862</v>
       </c>
       <c r="D24" t="n">
-        <v>162.54</v>
+        <v>195.62</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +842,3835 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.515124082565308</v>
+        <v>1.590420007705688</v>
       </c>
       <c r="D25" t="n">
-        <v>576.9829999999999</v>
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6853451728820801</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6936299800872803</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8246469497680664</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8015511035919189</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4451901912689209</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.471592903137207</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.427030086517334</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4427618980407715</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4526410102844238</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4394519329071045</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.537177801132202</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.481497049331665</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7228641510009766</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7043380737304688</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8164501190185547</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8024358749389648</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4510929584503174</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4471819400787354</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4349932670593262</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.422886848449707</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4391629695892334</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4410030841827393</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.458702087402344</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.494051218032837</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7061340808868408</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6879007816314697</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7674577236175537</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7797880172729492</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5406279563903809</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4361400604248047</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4339392185211182</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4355659484863281</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4457001686096191</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4385108947753906</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.382994174957275</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.534286022186279</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7093760967254639</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6806519031524658</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8011138439178467</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8051230907440186</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4419081211090088</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4518489837646484</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4328069686889648</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.419501781463623</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4365050792694092</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4344820976257324</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.558516979217529</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.463973999023438</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7222061157226562</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5318691730499268</v>
+      </c>
+      <c r="D3" t="n">
+        <v>38.894</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7950501441955566</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7989311218261719</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4207890033721924</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4473161697387695</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4395318031311035</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4369871616363525</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4641408920288086</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4557499885559082</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.459609031677246</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.54291296005249</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.710895299911499</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7088830471038818</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.811755895614624</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8205010890960693</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4545989036560059</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4391789436340332</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4335339069366455</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4350118637084961</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5755088329315186</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4562869071960449</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.476645708084106</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.524462223052979</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6860787868499756</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6827230453491211</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7947189807891846</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8002731800079346</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4497010707855225</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4443662166595459</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4439640045166016</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4845771789550781</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4415919780731201</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4587130546569824</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.541606187820435</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.486351728439331</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7061951160430908</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5470490455627441</v>
+      </c>
+      <c r="D15" t="n">
+        <v>39.092</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.800656795501709</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8017950057983398</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4526112079620361</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4500491619110107</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4411571025848389</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.5324251651763916</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4604158401489258</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4370548725128174</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.510985851287842</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.549386262893677</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7093508243560791</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7158010005950928</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7883658409118652</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8623130321502686</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4360389709472656</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4278390407562256</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4315969944000244</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.565061092376709</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.458050012588501</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4578471183776855</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.532283067703247</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.513053894042969</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7188370227813721</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7101590633392334</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8221697807312012</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9000601768493652</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.436305046081543</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4360339641571045</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4400639533996582</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.423677921295166</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4466211795806885</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4471642971038818</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.531458854675293</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.506942987442017</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7189290523529053</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7239382266998291</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.798652172088623</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8068079948425293</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4406919479370117</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4206881523132324</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4331362247467041</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4204323291778564</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6737687587738037</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4270501136779785</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.447995901107788</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.471848964691162</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7337000370025635</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7071578502655029</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7807378768920898</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8045718669891357</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4457449913024902</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.433344841003418</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4333088397979736</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4462389945983887</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4480340480804443</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4426047801971436</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.531529903411865</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.439433813095093</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7088987827301025</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7180440425872803</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7914550304412842</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8131389617919922</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4543640613555908</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4319980144500732</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4330129623413086</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4365861415863037</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4809029102325439</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.418860912322998</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.444949865341187</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.551309108734131</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6717090606689453</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7107751369476318</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7986230850219727</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8042020797729492</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4287350177764893</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4325370788574219</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4135642051696777</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4372758865356445</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4690151214599609</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4392521381378174</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.373762130737305</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.485620975494385</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7191689014434814</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7211110591888428</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8039031028747559</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7970139980316162</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.452125072479248</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4432430267333984</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4389479160308838</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4392650127410889</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4364688396453857</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4641642570495605</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.506156921386719</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.53263783454895</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7279770374298096</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8411061763763428</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7908940315246582</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9236142635345459</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5324962139129639</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4359691143035889</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4244639873504639</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4370980262756348</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.456904411315918</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4492101669311523</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.45722508430481</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.54869818687439</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7918999195098877</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6809170246124268</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7822360992431641</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8140327930450439</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4373068809509277</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4415607452392578</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4356300830841064</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4192550182342529</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4395861625671387</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4614689350128174</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.450492143630981</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.497140169143677</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8054790496826172</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7044830322265625</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7861471176147461</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7899158000946045</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4499750137329102</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5457611083984375</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4450101852416992</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4334471225738525</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4796543121337891</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4503202438354492</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.501744031906128</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.47802209854126</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_edge_test_results.xlsx
+++ b/client/test_results/filtered_edge_test_results.xlsx
@@ -7,7 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_10" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6681630611419678</v>
+        <v>0.801832914352417</v>
       </c>
       <c r="D2" t="n">
-        <v>36.722</v>
+        <v>116.054</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +490,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7940709590911865</v>
+        <v>0.7248969078063965</v>
       </c>
       <c r="D3" t="n">
-        <v>113.882</v>
+        <v>116.054</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8715760707855225</v>
+        <v>0.8263649940490723</v>
       </c>
       <c r="D4" t="n">
-        <v>36.058</v>
+        <v>38.23</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.96396803855896</v>
+        <v>0.7931210994720459</v>
       </c>
       <c r="D5" t="n">
-        <v>36.058</v>
+        <v>38.23</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.53131103515625</v>
+        <v>0.4521758556365967</v>
       </c>
       <c r="D6" t="n">
-        <v>34.767</v>
+        <v>36.939</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5052649974822998</v>
+        <v>0.4369120597839355</v>
       </c>
       <c r="D7" t="n">
-        <v>34.767</v>
+        <v>36.939</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4998562335968018</v>
+        <v>0.4278898239135742</v>
       </c>
       <c r="D8" t="n">
-        <v>34.103</v>
+        <v>36.275</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5014448165893555</v>
+        <v>0.434053897857666</v>
       </c>
       <c r="D9" t="n">
-        <v>34.103</v>
+        <v>36.275</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.505173921585083</v>
+        <v>0.4424519538879395</v>
       </c>
       <c r="D10" t="n">
-        <v>94.122</v>
+        <v>125.138</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.514009952545166</v>
+        <v>0.5393590927124023</v>
       </c>
       <c r="D11" t="n">
-        <v>114.48</v>
+        <v>165.039</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.424434900283813</v>
+        <v>1.322869062423706</v>
       </c>
       <c r="D12" t="n">
-        <v>187.61</v>
+        <v>189.782</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +650,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.568948268890381</v>
+        <v>1.576851844787598</v>
       </c>
       <c r="D13" t="n">
-        <v>240.068</v>
+        <v>242.24</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +666,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.808629035949707</v>
+        <v>0.7363560199737549</v>
       </c>
       <c r="D14" t="n">
-        <v>114.08</v>
+        <v>116.252</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +682,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8043930530548096</v>
+        <v>0.7230651378631592</v>
       </c>
       <c r="D15" t="n">
-        <v>114.08</v>
+        <v>116.252</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8698790073394775</v>
+        <v>0.7991538047790527</v>
       </c>
       <c r="D16" t="n">
-        <v>36.076</v>
+        <v>38.248</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8646781444549561</v>
+        <v>0.7961931228637695</v>
       </c>
       <c r="D17" t="n">
-        <v>36.076</v>
+        <v>38.248</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5180399417877197</v>
+        <v>0.4387421607971191</v>
       </c>
       <c r="D18" t="n">
-        <v>34.965</v>
+        <v>37.137</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5133869647979736</v>
+        <v>0.4367170333862305</v>
       </c>
       <c r="D19" t="n">
-        <v>34.965</v>
+        <v>37.137</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +762,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6370968818664551</v>
+        <v>0.4282269477844238</v>
       </c>
       <c r="D20" t="n">
-        <v>34.121</v>
+        <v>36.293</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.523859977722168</v>
+        <v>0.4376909732818604</v>
       </c>
       <c r="D21" t="n">
-        <v>34.121</v>
+        <v>36.293</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5108799934387207</v>
+        <v>0.4512598514556885</v>
       </c>
       <c r="D22" t="n">
-        <v>91.336</v>
+        <v>125.872</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6016383171081543</v>
+        <v>0.4484550952911377</v>
       </c>
       <c r="D23" t="n">
-        <v>515.522</v>
+        <v>872.102</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.584048748016357</v>
+        <v>1.504339933395386</v>
       </c>
       <c r="D24" t="n">
-        <v>162.565</v>
+        <v>195.62</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +842,3835 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.529394149780273</v>
+        <v>1.698383092880249</v>
       </c>
       <c r="D25" t="n">
-        <v>592.564</v>
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7150199413299561</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7363951206207275</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8002588748931885</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8007817268371582</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4347529411315918</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4522509574890137</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4288778305053711</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4696381092071533</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4575350284576416</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4474287033081055</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.514108180999756</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.667012929916382</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7390427589416504</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.195795774459839</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7952208518981934</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.814857006072998</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4459199905395508</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4420340061187744</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.436737060546875</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4237091541290283</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4536607265472412</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4438009262084961</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.32834005355835</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.70422887802124</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7989928722381592</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7088730335235596</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8116409778594971</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8045368194580078</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4503340721130371</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4438412189483643</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4366128444671631</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4337148666381836</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4521160125732422</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4734060764312744</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.433132171630859</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.505788803100586</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5380756855010986</v>
+      </c>
+      <c r="D14" t="n">
+        <v>39.092</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7280139923095703</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7748720645904541</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8274250030517578</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4337000846862793</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4383788108825684</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4466609954833984</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4254012107849121</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4343581199645996</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5784211158752441</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.900459051132202</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.608465909957886</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7154929637908936</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7190008163452148</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7996630668640137</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7981410026550293</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4600288867950439</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4428651332855225</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4569659233093262</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5245711803436279</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4709749221801758</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4436092376708984</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.350197076797485</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.559859037399292</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7278330326080322</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7501187324523926</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7963447570800781</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7802140712738037</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5793209075927734</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4466760158538818</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4343891143798828</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.5292539596557617</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4493241310119629</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4809980392456055</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.324910879135132</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.578042030334473</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7232201099395752</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7260699272155762</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8321912288665771</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7982437610626221</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4716348648071289</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4491989612579346</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4385597705841064</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4389758110046387</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4431662559509277</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4464812278747559</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.549257040023804</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.57011890411377</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7360117435455322</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7301502227783203</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8170051574707031</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8039469718933105</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4417431354522705</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5348269939422607</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5920629501342773</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4305069446563721</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4526169300079346</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4431281089782715</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.373753070831299</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.637137889862061</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7532889842987061</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7119801044464111</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.827160120010376</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8043923377990723</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5058591365814209</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4586100578308105</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5532982349395752</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4419240951538086</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4489080905914307</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4537510871887207</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.594336986541748</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.547238826751709</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7323153018951416</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7190520763397217</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.816234827041626</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.823512077331543</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5277328491210938</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4658260345458984</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4492459297180176</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4338910579681396</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4534130096435547</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4420230388641357</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.331115007400513</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.663437843322754</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7402310371398926</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7392387390136719</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8777339458465576</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8076648712158203</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4609169960021973</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4257831573486328</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4497652053833008</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4330968856811523</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.60288405418396</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4512677192687988</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.410642862319946</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.572535991668701</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7176198959350586</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8144330978393555</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8047559261322021</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8123190402984619</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.445044994354248</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4609801769256592</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4416429996490479</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4363420009613037</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4528839588165283</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.444256067276001</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.335762977600098</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.662590980529785</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8139681816101074</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.753007173538208</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.798471212387085</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8345088958740234</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4513700008392334</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4413771629333496</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4319841861724854</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4519350528717041</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4541220664978027</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4721791744232178</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.456155061721802</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.541233777999878</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8610348701477051</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7423989772796631</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7967259883880615</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8218517303466797</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4368507862091064</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4798760414123535</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4564239978790283</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4308719635009766</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4491000175476074</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4596118927001953</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.412752151489258</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.653960943222046</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8026540279388428</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7437839508056641</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8142890930175781</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8108310699462891</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4456870555877686</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4331469535827637</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4348227977752686</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4419040679931641</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4466040134429932</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4578819274902344</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.536247253417969</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.552286148071289</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7294471263885498</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.705650806427002</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7906501293182373</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8123712539672852</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4620649814605713</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4461739063262939</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.432769775390625</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4219510555267334</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4518141746520996</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4491839408874512</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.330737352371216</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.743377923965454</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7450370788574219</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7145071029663086</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7899150848388672</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8043613433837891</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4308710098266602</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4353327751159668</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.429983377456665</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4274559020996094</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4619741439819336</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4411609172821045</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.540398120880127</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.555435180664062</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6919090747833252</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7204480171203613</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7953569889068604</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8120150566101074</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4341781139373779</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4318509101867676</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4194772243499756</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4271800518035889</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4682750701904297</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4245951175689697</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.321456909179688</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.518212795257568</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_edge_test_results.xlsx
+++ b/client/test_results/filtered_edge_test_results.xlsx
@@ -7,7 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_10" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5845108032226562</v>
+        <v>0.7617321014404297</v>
       </c>
       <c r="D2" t="n">
-        <v>36.722</v>
+        <v>116.054</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +490,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8246860504150391</v>
+        <v>0.729219913482666</v>
       </c>
       <c r="D3" t="n">
-        <v>113.882</v>
+        <v>116.054</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8449499607086182</v>
+        <v>0.8207409381866455</v>
       </c>
       <c r="D4" t="n">
-        <v>36.058</v>
+        <v>38.23</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8650350570678711</v>
+        <v>0.8005528450012207</v>
       </c>
       <c r="D5" t="n">
-        <v>36.058</v>
+        <v>38.23</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5073418617248535</v>
+        <v>0.4528377056121826</v>
       </c>
       <c r="D6" t="n">
-        <v>34.767</v>
+        <v>36.939</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5522360801696777</v>
+        <v>0.4827702045440674</v>
       </c>
       <c r="D7" t="n">
-        <v>34.767</v>
+        <v>36.939</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5032610893249512</v>
+        <v>0.4436869621276855</v>
       </c>
       <c r="D8" t="n">
-        <v>34.103</v>
+        <v>36.275</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5062317848205566</v>
+        <v>0.443120002746582</v>
       </c>
       <c r="D9" t="n">
-        <v>34.103</v>
+        <v>36.275</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5362110137939453</v>
+        <v>0.4559230804443359</v>
       </c>
       <c r="D10" t="n">
-        <v>122.966</v>
+        <v>125.138</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5196249485015869</v>
+        <v>0.4517247676849365</v>
       </c>
       <c r="D11" t="n">
-        <v>162.867</v>
+        <v>165.039</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.58526611328125</v>
+        <v>1.426597833633423</v>
       </c>
       <c r="D12" t="n">
-        <v>187.61</v>
+        <v>189.782</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +650,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.601675987243652</v>
+        <v>1.603701829910278</v>
       </c>
       <c r="D13" t="n">
-        <v>240.068</v>
+        <v>242.24</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +666,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7884101867675781</v>
+        <v>0.715224027633667</v>
       </c>
       <c r="D14" t="n">
-        <v>114.08</v>
+        <v>116.252</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +682,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8061130046844482</v>
+        <v>1.052669286727905</v>
       </c>
       <c r="D15" t="n">
-        <v>114.08</v>
+        <v>116.252</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8690869808197021</v>
+        <v>0.806657075881958</v>
       </c>
       <c r="D16" t="n">
-        <v>36.076</v>
+        <v>38.248</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8642432689666748</v>
+        <v>0.8143250942230225</v>
       </c>
       <c r="D17" t="n">
-        <v>36.076</v>
+        <v>38.248</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5070071220397949</v>
+        <v>0.4343390464782715</v>
       </c>
       <c r="D18" t="n">
-        <v>34.965</v>
+        <v>37.137</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5122320652008057</v>
+        <v>0.46697998046875</v>
       </c>
       <c r="D19" t="n">
-        <v>34.965</v>
+        <v>37.137</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +762,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5035409927368164</v>
+        <v>0.5973398685455322</v>
       </c>
       <c r="D20" t="n">
-        <v>34.121</v>
+        <v>36.293</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5015180110931396</v>
+        <v>0.4433858394622803</v>
       </c>
       <c r="D21" t="n">
-        <v>34.121</v>
+        <v>36.293</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5183188915252686</v>
+        <v>0.4684822559356689</v>
       </c>
       <c r="D22" t="n">
-        <v>123.7</v>
+        <v>125.872</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5444402694702148</v>
+        <v>0.4305591583251953</v>
       </c>
       <c r="D23" t="n">
-        <v>869.9299999999999</v>
+        <v>872.102</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.386044025421143</v>
+        <v>1.748358964920044</v>
       </c>
       <c r="D24" t="n">
-        <v>193.448</v>
+        <v>195.62</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +842,3835 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.746180057525635</v>
+        <v>1.733345031738281</v>
       </c>
       <c r="D25" t="n">
-        <v>946.972</v>
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7918388843536377</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7223420143127441</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.809999942779541</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7996065616607666</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4312350749969482</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.430387020111084</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4300971031188965</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.434575080871582</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5472702980041504</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4872658252716064</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.589559078216553</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.676429033279419</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7228212356567383</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8148071765899658</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7968566417694092</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8045198917388916</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4470019340515137</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4536788463592529</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4269273281097412</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4175541400909424</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5536088943481445</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4614181518554688</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.795760154724121</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.803592205047607</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8053412437438965</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7322161197662354</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8058209419250488</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7885959148406982</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4377758502960205</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4488749504089355</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4728450775146484</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4583809375762939</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8359930515289307</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4454100131988525</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.513051748275757</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.704191446304321</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7414979934692383</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7229287624359131</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7962322235107422</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8156599998474121</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4420959949493408</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4396440982818604</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4173009395599365</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.5433390140533447</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4470763206481934</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4592001438140869</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.765062093734741</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.701011180877686</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7486629486083984</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5531818866729736</v>
+      </c>
+      <c r="D3" t="n">
+        <v>38.894</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7936069965362549</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7984800338745117</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4291448593139648</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4348223209381104</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4348189830780029</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4501359462738037</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4584918022155762</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4328088760375977</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.12064003944397</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.667289018630981</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7169966697692871</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8130478858947754</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7994968891143799</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8202769756317139</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4601411819458008</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4408588409423828</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7022190093994141</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4448320865631104</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4546828269958496</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4543259143829346</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.635711908340454</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.69697117805481</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7360141277313232</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7223219871520996</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.841094970703125</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8117821216583252</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4341518878936768</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4365880489349365</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4404470920562744</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.438521146774292</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4400620460510254</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5015759468078613</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.488061189651489</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.617236137390137</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7328786849975586</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7236678600311279</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.806732177734375</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.803473949432373</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4520950317382812</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4392120838165283</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4247832298278809</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4273681640625</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4563930034637451</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5467019081115723</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.669753074645996</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.694876194000244</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.723336935043335</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7233469486236572</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8128471374511719</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7970008850097656</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4447460174560547</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.559614896774292</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4338850975036621</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5454940795898438</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4440958499908447</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4398448467254639</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.443542003631592</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.656313896179199</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7227718830108643</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7213246822357178</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7807650566101074</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8043599128723145</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4533030986785889</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4395041465759277</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4081211090087891</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4445259571075439</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5342531204223633</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4522240161895752</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.443988800048828</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.682898044586182</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7206289768218994</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.71685791015625</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7969567775726318</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7920310497283936</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4399309158325195</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4363811016082764</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4107980728149414</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4851441383361816</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4436101913452148</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4526340961456299</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.553335905075073</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.663644075393677</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7478759288787842</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.719127893447876</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.791907787322998</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8023369312286377</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4514250755310059</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4524962902069092</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4329190254211426</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4340429306030273</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5435128211975098</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4359018802642822</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.712271213531494</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.70653510093689</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7229981422424316</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.723729133605957</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7882058620452881</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8055360317230225</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.464946985244751</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4663419723510742</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6103527545928955</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4297142028808594</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4367060661315918</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.434755802154541</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.48914098739624</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.638744115829468</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7064118385314941</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7119028568267822</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8157250881195068</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8143987655639648</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4410860538482666</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4469969272613525</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4348740577697754</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.452498197555542</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.474621057510376</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4482660293579102</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.628683805465698</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.816540956497192</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.729590892791748</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7128260135650635</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7626640796661377</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8021571636199951</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5019071102142334</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4324789047241211</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4536278247833252</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4335329532623291</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4499540328979492</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4501199722290039</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.54996395111084</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.699536085128784</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7720446586608887</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7027120590209961</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8027279376983643</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8935980796813965</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4377727508544922</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4491152763366699</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4324839115142822</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4280891418457031</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.445598840713501</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4480869770050049</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.339907884597778</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.750637054443359</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7343788146972656</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7907400131225586</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9178409576416016</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7778351306915283</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4369809627532959</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4568688869476318</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4486730098724365</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4687528610229492</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.435161828994751</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4347429275512695</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.713119029998779</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.550788879394531</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5352091789245605</v>
+      </c>
+      <c r="D14" t="n">
+        <v>39.092</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6876399517059326</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9034311771392822</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7991931438446045</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4561522006988525</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4555270671844482</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4391739368438721</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4295217990875244</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4338829517364502</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4248931407928467</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.486860036849976</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.849902868270874</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_edge_test_results.xlsx
+++ b/client/test_results/filtered_edge_test_results.xlsx
@@ -7,7 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_10" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.00118088722229</v>
+        <v>2.381944179534912</v>
       </c>
       <c r="D2" t="n">
-        <v>115.378</v>
+        <v>117.55</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +490,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2.006192207336426</v>
+        <v>2.362977981567383</v>
       </c>
       <c r="D3" t="n">
-        <v>115.378</v>
+        <v>117.55</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.519798994064331</v>
+        <v>2.654654979705811</v>
       </c>
       <c r="D4" t="n">
-        <v>37.554</v>
+        <v>39.726</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.35501503944397</v>
+        <v>2.644696950912476</v>
       </c>
       <c r="D5" t="n">
-        <v>37.554</v>
+        <v>39.726</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5217380523681641</v>
+        <v>0.4425616264343262</v>
       </c>
       <c r="D6" t="n">
-        <v>34.767</v>
+        <v>36.939</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5031807422637939</v>
+        <v>0.4462349414825439</v>
       </c>
       <c r="D7" t="n">
-        <v>34.767</v>
+        <v>36.939</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.503633975982666</v>
+        <v>0.4285600185394287</v>
       </c>
       <c r="D8" t="n">
-        <v>34.103</v>
+        <v>36.275</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5110771656036377</v>
+        <v>0.4490430355072021</v>
       </c>
       <c r="D9" t="n">
-        <v>34.103</v>
+        <v>36.275</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>1.131783008575439</v>
+        <v>1.317404270172119</v>
       </c>
       <c r="D10" t="n">
-        <v>172.778</v>
+        <v>174.95</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>1.109755992889404</v>
+        <v>1.265464067459106</v>
       </c>
       <c r="D11" t="n">
-        <v>193.136</v>
+        <v>195.308</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>2.210679054260254</v>
+        <v>2.475586891174316</v>
       </c>
       <c r="D12" t="n">
-        <v>162.222</v>
+        <v>164.394</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +650,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>2.391414880752563</v>
+        <v>2.381553173065186</v>
       </c>
       <c r="D13" t="n">
-        <v>193.177</v>
+        <v>195.349</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +666,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.989177227020264</v>
+        <v>2.348102807998657</v>
       </c>
       <c r="D14" t="n">
-        <v>115.576</v>
+        <v>117.748</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +682,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>2.004157781600952</v>
+        <v>2.344529867172241</v>
       </c>
       <c r="D15" t="n">
-        <v>115.576</v>
+        <v>117.748</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>2.349467754364014</v>
+        <v>2.631930828094482</v>
       </c>
       <c r="D16" t="n">
-        <v>37.572</v>
+        <v>39.744</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>2.344269275665283</v>
+        <v>2.62335205078125</v>
       </c>
       <c r="D17" t="n">
-        <v>37.572</v>
+        <v>39.744</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.513944149017334</v>
+        <v>0.4523751735687256</v>
       </c>
       <c r="D18" t="n">
-        <v>34.965</v>
+        <v>37.137</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5085799694061279</v>
+        <v>0.557945728302002</v>
       </c>
       <c r="D19" t="n">
-        <v>34.965</v>
+        <v>37.137</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +762,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5054137706756592</v>
+        <v>0.4370131492614746</v>
       </c>
       <c r="D20" t="n">
-        <v>34.121</v>
+        <v>36.293</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4956212043762207</v>
+        <v>0.4243500232696533</v>
       </c>
       <c r="D21" t="n">
-        <v>34.121</v>
+        <v>36.293</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>1.220472812652588</v>
+        <v>1.433130025863647</v>
       </c>
       <c r="D22" t="n">
-        <v>170.025</v>
+        <v>172.197</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>1.226037979125977</v>
+        <v>1.432314157485962</v>
       </c>
       <c r="D23" t="n">
-        <v>578.597</v>
+        <v>580.769</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>2.361420154571533</v>
+        <v>2.485748052597046</v>
       </c>
       <c r="D24" t="n">
-        <v>164.036</v>
+        <v>166.208</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +842,3835 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>2.492705106735229</v>
+        <v>2.521131992340088</v>
       </c>
       <c r="D25" t="n">
-        <v>578.479</v>
+        <v>580.651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.36687707901001</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.37322211265564</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.665726900100708</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.655000925064087</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4571387767791748</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4551198482513428</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4295260906219482</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4436368942260742</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.32043194770813</v>
+      </c>
+      <c r="D10" t="n">
+        <v>174.95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.268113851547241</v>
+      </c>
+      <c r="D11" t="n">
+        <v>195.308</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.41432785987854</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.380144119262695</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.330528020858765</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.343330144882202</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.680768966674805</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.650115966796875</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4436948299407959</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4377191066741943</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4247357845306396</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4391119480133057</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.409767150878906</v>
+      </c>
+      <c r="D22" t="n">
+        <v>172.197</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.451079130172729</v>
+      </c>
+      <c r="D23" t="n">
+        <v>580.769</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.461682796478271</v>
+      </c>
+      <c r="D24" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.64755392074585</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.352851867675781</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.364468097686768</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.66705322265625</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.67743706703186</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5475051403045654</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4655439853668213</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4348599910736084</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4285650253295898</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.32232403755188</v>
+      </c>
+      <c r="D10" t="n">
+        <v>174.95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.276288032531738</v>
+      </c>
+      <c r="D11" t="n">
+        <v>195.308</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.483474969863892</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.476578712463379</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.334516048431396</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.354778051376343</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.637261152267456</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.652247905731201</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4316520690917969</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4375679492950439</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4272630214691162</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4674911499023438</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.422033071517944</v>
+      </c>
+      <c r="D22" t="n">
+        <v>172.197</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.445734739303589</v>
+      </c>
+      <c r="D23" t="n">
+        <v>580.769</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.456343173980713</v>
+      </c>
+      <c r="D24" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.531800031661987</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.350696802139282</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.351281881332397</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.667159080505371</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.658685922622681</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4421613216400146</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.521780252456665</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4333920478820801</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4328601360321045</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.318399906158447</v>
+      </c>
+      <c r="D10" t="n">
+        <v>174.95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.271876096725464</v>
+      </c>
+      <c r="D11" t="n">
+        <v>195.308</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.532685995101929</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.450407981872559</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.347205877304077</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.350176095962524</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.712126016616821</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.689559936523438</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.441824197769165</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4577879905700684</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4495780467987061</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4398348331451416</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.414628744125366</v>
+      </c>
+      <c r="D22" t="n">
+        <v>172.197</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.450655221939087</v>
+      </c>
+      <c r="D23" t="n">
+        <v>580.769</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.603863954544067</v>
+      </c>
+      <c r="D24" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.579957962036133</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.370120048522949</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.356405019760132</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.64842700958252</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.674160003662109</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4419829845428467</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4287331104278564</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4339008331298828</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4424159526824951</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.321932792663574</v>
+      </c>
+      <c r="D10" t="n">
+        <v>174.95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.269155025482178</v>
+      </c>
+      <c r="D11" t="n">
+        <v>195.308</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.428781986236572</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.402552604675293</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.350996971130371</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.337817192077637</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.656750202178955</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.7064208984375</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4291682243347168</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4458281993865967</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4219789505004883</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4317190647125244</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.419999122619629</v>
+      </c>
+      <c r="D22" t="n">
+        <v>172.197</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.452750205993652</v>
+      </c>
+      <c r="D23" t="n">
+        <v>580.769</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.46085000038147</v>
+      </c>
+      <c r="D24" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.630031108856201</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.352613210678101</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.366114139556885</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.636620044708252</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.667409896850586</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4478440284729004</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.448768138885498</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4452641010284424</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4355261325836182</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.316729307174683</v>
+      </c>
+      <c r="D10" t="n">
+        <v>174.95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.280999898910522</v>
+      </c>
+      <c r="D11" t="n">
+        <v>195.308</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.459098100662231</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.357401847839355</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.346164226531982</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.348736047744751</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.668027877807617</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.669711112976074</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4356639385223389</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4684810638427734</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4259810447692871</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4303879737854004</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.432267665863037</v>
+      </c>
+      <c r="D22" t="n">
+        <v>172.197</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.455929040908813</v>
+      </c>
+      <c r="D23" t="n">
+        <v>580.769</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.433987855911255</v>
+      </c>
+      <c r="D24" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.574958086013794</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.403578996658325</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.35469913482666</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.651837110519409</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.653925180435181</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4618797302246094</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4435830116271973</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4364769458770752</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4358677864074707</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.323632955551147</v>
+      </c>
+      <c r="D10" t="n">
+        <v>174.95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.28071403503418</v>
+      </c>
+      <c r="D11" t="n">
+        <v>195.308</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.451524972915649</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.423437118530273</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.342121124267578</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.353478193283081</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.667885780334473</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.655392169952393</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4490890502929688</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4427430629730225</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4195847511291504</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4326207637786865</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.417330026626587</v>
+      </c>
+      <c r="D22" t="n">
+        <v>172.197</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.447602033615112</v>
+      </c>
+      <c r="D23" t="n">
+        <v>580.769</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.444617986679077</v>
+      </c>
+      <c r="D24" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.63620400428772</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.350524187088013</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.362299203872681</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.664010047912598</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.662631034851074</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4546430110931396</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.448498010635376</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4417681694030762</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4261491298675537</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.321950197219849</v>
+      </c>
+      <c r="D10" t="n">
+        <v>174.95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.267114877700806</v>
+      </c>
+      <c r="D11" t="n">
+        <v>195.308</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.504250288009644</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.427470207214355</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.339776039123535</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.336215734481812</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.652168035507202</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.654980182647705</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4415438175201416</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4383018016815186</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4390230178833008</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6506848335266113</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.432500123977661</v>
+      </c>
+      <c r="D22" t="n">
+        <v>172.197</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.447540044784546</v>
+      </c>
+      <c r="D23" t="n">
+        <v>580.769</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.449574947357178</v>
+      </c>
+      <c r="D24" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.786302089691162</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.352993965148926</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.363658905029297</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.646004915237427</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.635680913925171</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4590151309967041</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4484512805938721</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4223868846893311</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4376978874206543</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.322849035263062</v>
+      </c>
+      <c r="D10" t="n">
+        <v>174.95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.304946899414062</v>
+      </c>
+      <c r="D11" t="n">
+        <v>195.308</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.47940468788147</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.351127147674561</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.354060649871826</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.354294776916504</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.664906978607178</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.661968231201172</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4325518608093262</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4505050182342529</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4429490566253662</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4217102527618408</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.407937049865723</v>
+      </c>
+      <c r="D22" t="n">
+        <v>172.197</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.440731763839722</v>
+      </c>
+      <c r="D23" t="n">
+        <v>580.769</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.451857805252075</v>
+      </c>
+      <c r="D24" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.624344825744629</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.353962898254395</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.371668100357056</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.661091089248657</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.652583122253418</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4406919479370117</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5473368167877197</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4414639472961426</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4245560169219971</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.3210608959198</v>
+      </c>
+      <c r="D10" t="n">
+        <v>174.95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.274516105651855</v>
+      </c>
+      <c r="D11" t="n">
+        <v>195.308</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.564409732818604</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.504570960998535</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.340559005737305</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.337460041046143</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.654894113540649</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.656398057937622</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4389090538024902</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4338762760162354</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4391741752624512</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.419625997543335</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.424620866775513</v>
+      </c>
+      <c r="D22" t="n">
+        <v>172.197</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.436838150024414</v>
+      </c>
+      <c r="D23" t="n">
+        <v>580.769</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.445822954177856</v>
+      </c>
+      <c r="D24" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.562580108642578</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.651</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_edge_test_results.xlsx
+++ b/client/test_results/filtered_edge_test_results.xlsx
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7636559009552002</v>
+        <v>0.7189998626708984</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6692578792572021</v>
+        <v>0.7182590961456299</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8001060485839844</v>
+        <v>0.8811030387878418</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7980883121490479</v>
+        <v>0.8347270488739014</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4729290008544922</v>
+        <v>0.4383511543273926</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4346761703491211</v>
+        <v>0.4353888034820557</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4409079551696777</v>
+        <v>0.4182548522949219</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4167890548706055</v>
+        <v>0.4413440227508545</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -602,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4302599430084229</v>
+        <v>0.4278378486633301</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -618,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4372489452362061</v>
+        <v>0.4459860324859619</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -634,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.501375913619995</v>
+        <v>1.391402959823608</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -650,10 +650,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.502344131469727</v>
+        <v>1.519195795059204</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7165429592132568</v>
+        <v>0.7138440608978271</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6880941390991211</v>
+        <v>0.8295130729675293</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7911438941955566</v>
+        <v>0.8644530773162842</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.807560920715332</v>
+        <v>0.8723869323730469</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5254027843475342</v>
+        <v>0.4393999576568604</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4167990684509277</v>
+        <v>0.4604401588439941</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4148721694946289</v>
+        <v>0.4311530590057373</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4321601390838623</v>
+        <v>0.4147927761077881</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -794,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4610319137573242</v>
+        <v>0.4354507923126221</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -810,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4232029914855957</v>
+        <v>0.4500129222869873</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -826,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.454376935958862</v>
+        <v>1.542298793792725</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -842,10 +842,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.590420007705688</v>
+        <v>1.494640111923218</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6853451728820801</v>
+        <v>0.7285940647125244</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6936299800872803</v>
+        <v>0.7109670639038086</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8246469497680664</v>
+        <v>0.8584771156311035</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8015511035919189</v>
+        <v>0.8974008560180664</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4451901912689209</v>
+        <v>0.4241201877593994</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.471592903137207</v>
+        <v>0.4268941879272461</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.427030086517334</v>
+        <v>0.4362092018127441</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4427618980407715</v>
+        <v>0.4199891090393066</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -1027,10 +1027,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4526410102844238</v>
+        <v>0.4401848316192627</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -1043,10 +1043,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4394519329071045</v>
+        <v>0.447411060333252</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -1059,10 +1059,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.537177801132202</v>
+        <v>1.572485208511353</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -1075,10 +1075,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.481497049331665</v>
+        <v>1.61729884147644</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7228641510009766</v>
+        <v>0.7012732028961182</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7043380737304688</v>
+        <v>0.7260928153991699</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8164501190185547</v>
+        <v>0.8508169651031494</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8024358749389648</v>
+        <v>0.979727029800415</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4510929584503174</v>
+        <v>0.4418199062347412</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4471819400787354</v>
+        <v>0.447577953338623</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4349932670593262</v>
+        <v>0.4308321475982666</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.422886848449707</v>
+        <v>0.5260107517242432</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -1219,10 +1219,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4391629695892334</v>
+        <v>0.4252309799194336</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -1235,10 +1235,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4410030841827393</v>
+        <v>0.4385232925415039</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -1251,10 +1251,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.458702087402344</v>
+        <v>1.449512004852295</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -1267,10 +1267,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.494051218032837</v>
+        <v>1.511325836181641</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7061340808868408</v>
+        <v>0.7011659145355225</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6879007816314697</v>
+        <v>0.7237610816955566</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7674577236175537</v>
+        <v>0.8754081726074219</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7797880172729492</v>
+        <v>0.8728339672088623</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5406279563903809</v>
+        <v>0.4509479999542236</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4361400604248047</v>
+        <v>0.4473159313201904</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4339392185211182</v>
+        <v>0.4437887668609619</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4355659484863281</v>
+        <v>0.4326057434082031</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -1452,10 +1452,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4457001686096191</v>
+        <v>0.4331150054931641</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -1468,10 +1468,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4385108947753906</v>
+        <v>0.4252059459686279</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -1484,10 +1484,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.382994174957275</v>
+        <v>1.346204042434692</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -1500,10 +1500,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.534286022186279</v>
+        <v>1.612989902496338</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7093760967254639</v>
+        <v>0.7305970191955566</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6806519031524658</v>
+        <v>0.7179281711578369</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8011138439178467</v>
+        <v>0.8718562126159668</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8051230907440186</v>
+        <v>0.9765212535858154</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4419081211090088</v>
+        <v>0.4498531818389893</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4518489837646484</v>
+        <v>0.4589660167694092</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4328069686889648</v>
+        <v>0.4326410293579102</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.419501781463623</v>
+        <v>0.4299230575561523</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -1644,10 +1644,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4365050792694092</v>
+        <v>0.4200818538665771</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -1660,10 +1660,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4344820976257324</v>
+        <v>0.4298169612884521</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -1676,10 +1676,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.558516979217529</v>
+        <v>1.6058509349823</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -1692,10 +1692,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.463973999023438</v>
+        <v>1.48196005821228</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7222061157226562</v>
+        <v>0.7183218002319336</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5318691730499268</v>
+        <v>0.7003252506256104</v>
       </c>
       <c r="D3" t="n">
-        <v>38.894</v>
+        <v>116.054</v>
       </c>
     </row>
     <row r="4">
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7950501441955566</v>
+        <v>0.873633861541748</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7989311218261719</v>
+        <v>0.8662667274475098</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4207890033721924</v>
+        <v>0.4436972141265869</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4473161697387695</v>
+        <v>0.455496072769165</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4395318031311035</v>
+        <v>0.4316408634185791</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4369871616363525</v>
+        <v>0.4250209331512451</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -1877,10 +1877,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4641408920288086</v>
+        <v>0.4449729919433594</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -1893,10 +1893,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4557499885559082</v>
+        <v>0.4430699348449707</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -1909,10 +1909,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.459609031677246</v>
+        <v>1.503496885299683</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -1925,10 +1925,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.54291296005249</v>
+        <v>1.539101839065552</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.710895299911499</v>
+        <v>0.7205507755279541</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7088830471038818</v>
+        <v>0.7053730487823486</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.811755895614624</v>
+        <v>0.8645927906036377</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8205010890960693</v>
+        <v>0.8758108615875244</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4545989036560059</v>
+        <v>0.4502830505371094</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4391789436340332</v>
+        <v>0.4409677982330322</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4335339069366455</v>
+        <v>0.4150047302246094</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4350118637084961</v>
+        <v>0.4241247177124023</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -2069,10 +2069,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5755088329315186</v>
+        <v>0.4349420070648193</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -2085,10 +2085,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4562869071960449</v>
+        <v>0.4502499103546143</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -2101,10 +2101,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.476645708084106</v>
+        <v>1.573982000350952</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -2117,10 +2117,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.524462223052979</v>
+        <v>1.612559080123901</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6860787868499756</v>
+        <v>0.698599100112915</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6827230453491211</v>
+        <v>0.7167630195617676</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7947189807891846</v>
+        <v>0.8570022583007812</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8002731800079346</v>
+        <v>0.8590829372406006</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4497010707855225</v>
+        <v>0.4481580257415771</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4443662166595459</v>
+        <v>0.4408478736877441</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4439640045166016</v>
+        <v>0.4379758834838867</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4845771789550781</v>
+        <v>0.4222748279571533</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -2302,10 +2302,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4415919780731201</v>
+        <v>0.4244039058685303</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -2318,10 +2318,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4587130546569824</v>
+        <v>0.4630630016326904</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -2334,10 +2334,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.541606187820435</v>
+        <v>1.5641028881073</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -2350,10 +2350,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.486351728439331</v>
+        <v>1.571391820907593</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7061951160430908</v>
+        <v>0.7402610778808594</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -2382,10 +2382,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5470490455627441</v>
+        <v>0.7169899940490723</v>
       </c>
       <c r="D15" t="n">
-        <v>39.092</v>
+        <v>116.252</v>
       </c>
     </row>
     <row r="16">
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.800656795501709</v>
+        <v>0.8613388538360596</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8017950057983398</v>
+        <v>0.8627748489379883</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4526112079620361</v>
+        <v>0.4518599510192871</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4500491619110107</v>
+        <v>0.4617400169372559</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4411571025848389</v>
+        <v>0.4413537979125977</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5324251651763916</v>
+        <v>0.4538249969482422</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -2494,10 +2494,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4604158401489258</v>
+        <v>0.4186079502105713</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -2510,10 +2510,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4370548725128174</v>
+        <v>0.4620349407196045</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -2526,10 +2526,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.510985851287842</v>
+        <v>1.548031091690063</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -2542,10 +2542,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.549386262893677</v>
+        <v>1.393096923828125</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7093508243560791</v>
+        <v>0.7015810012817383</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7158010005950928</v>
+        <v>0.695734977722168</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7883658409118652</v>
+        <v>0.828880786895752</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8623130321502686</v>
+        <v>0.8592259883880615</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4360389709472656</v>
+        <v>0.4696481227874756</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4278390407562256</v>
+        <v>0.4330148696899414</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4315969944000244</v>
+        <v>0.4210498332977295</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.565061092376709</v>
+        <v>0.4344320297241211</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -2727,10 +2727,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.458050012588501</v>
+        <v>0.4360141754150391</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2743,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4578471183776855</v>
+        <v>0.4469389915466309</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -2759,10 +2759,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.532283067703247</v>
+        <v>1.524718999862671</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -2775,10 +2775,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.513053894042969</v>
+        <v>1.635794878005981</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -2791,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7188370227813721</v>
+        <v>0.7208268642425537</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7101590633392334</v>
+        <v>0.7111732959747314</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -2823,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8221697807312012</v>
+        <v>0.8537449836730957</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9000601768493652</v>
+        <v>0.8582069873809814</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.436305046081543</v>
+        <v>0.4530911445617676</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4360339641571045</v>
+        <v>0.5494868755340576</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4400639533996582</v>
+        <v>0.423198938369751</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.423677921295166</v>
+        <v>0.4194989204406738</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -2919,10 +2919,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4466211795806885</v>
+        <v>0.4495601654052734</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -2935,10 +2935,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4471642971038818</v>
+        <v>0.5407900810241699</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -2951,10 +2951,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.531458854675293</v>
+        <v>1.407762050628662</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -2967,10 +2967,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.506942987442017</v>
+        <v>1.507643699645996</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7189290523529053</v>
+        <v>0.7173521518707275</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7239382266998291</v>
+        <v>0.7178239822387695</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.798652172088623</v>
+        <v>0.8659389019012451</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8068079948425293</v>
+        <v>0.8399531841278076</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4406919479370117</v>
+        <v>0.436359167098999</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4206881523132324</v>
+        <v>0.4391360282897949</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4331362247467041</v>
+        <v>0.408574104309082</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4204323291778564</v>
+        <v>0.5485281944274902</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -3152,10 +3152,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6737687587738037</v>
+        <v>0.5410840511322021</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -3168,10 +3168,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4270501136779785</v>
+        <v>0.4221129417419434</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -3184,10 +3184,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.447995901107788</v>
+        <v>1.523816823959351</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -3200,10 +3200,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.471848964691162</v>
+        <v>1.58435583114624</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7337000370025635</v>
+        <v>0.7077701091766357</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7071578502655029</v>
+        <v>0.7216639518737793</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7807378768920898</v>
+        <v>0.867962121963501</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8045718669891357</v>
+        <v>0.8432259559631348</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4457449913024902</v>
+        <v>0.422799825668335</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.433344841003418</v>
+        <v>0.4554896354675293</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4333088397979736</v>
+        <v>0.4358158111572266</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4462389945983887</v>
+        <v>0.5280377864837646</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -3344,10 +3344,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4480340480804443</v>
+        <v>0.4254848957061768</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -3360,10 +3360,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4426047801971436</v>
+        <v>0.4612128734588623</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -3376,10 +3376,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.531529903411865</v>
+        <v>1.51349401473999</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -3392,10 +3392,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.439433813095093</v>
+        <v>1.549269914627075</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>
@@ -3449,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7088987827301025</v>
+        <v>0.71728515625</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7180440425872803</v>
+        <v>0.723311185836792</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7914550304412842</v>
+        <v>0.8501739501953125</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -3497,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8131389617919922</v>
+        <v>0.8660538196563721</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4543640613555908</v>
+        <v>0.4525589942932129</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4319980144500732</v>
+        <v>0.4916517734527588</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4330129623413086</v>
+        <v>0.4272749423980713</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -3561,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4365861415863037</v>
+        <v>0.4416990280151367</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -3577,10 +3577,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4809029102325439</v>
+        <v>0.4331488609313965</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -3593,10 +3593,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.418860912322998</v>
+        <v>0.4265940189361572</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -3609,10 +3609,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.444949865341187</v>
+        <v>1.588427066802979</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -3625,10 +3625,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.551309108734131</v>
+        <v>1.532674074172974</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -3641,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6717090606689453</v>
+        <v>0.7334048748016357</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7107751369476318</v>
+        <v>0.7336759567260742</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7986230850219727</v>
+        <v>0.8585190773010254</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8042020797729492</v>
+        <v>0.860504150390625</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4287350177764893</v>
+        <v>0.4345569610595703</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4325370788574219</v>
+        <v>0.522381067276001</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4135642051696777</v>
+        <v>0.4207239151000977</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4372758865356445</v>
+        <v>0.4309859275817871</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -3769,10 +3769,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4690151214599609</v>
+        <v>0.4564387798309326</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -3785,10 +3785,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4392521381378174</v>
+        <v>0.4466502666473389</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -3801,10 +3801,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.373762130737305</v>
+        <v>1.457503080368042</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -3817,10 +3817,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.485620975494385</v>
+        <v>1.54876708984375</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7191689014434814</v>
+        <v>0.7414541244506836</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -3890,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7211110591888428</v>
+        <v>0.7279238700866699</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8039031028747559</v>
+        <v>0.860565185546875</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7970139980316162</v>
+        <v>0.851057767868042</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.452125072479248</v>
+        <v>0.4364211559295654</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4432430267333984</v>
+        <v>0.458467960357666</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -3970,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4389479160308838</v>
+        <v>0.4331591129302979</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4392650127410889</v>
+        <v>0.4192910194396973</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -4002,10 +4002,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4364688396453857</v>
+        <v>0.4331760406494141</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -4018,10 +4018,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4641642570495605</v>
+        <v>0.430042028427124</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -4034,10 +4034,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.506156921386719</v>
+        <v>1.568921089172363</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -4050,10 +4050,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.53263783454895</v>
+        <v>1.518028020858765</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7279770374298096</v>
+        <v>0.7400202751159668</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8411061763763428</v>
+        <v>0.7290318012237549</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7908940315246582</v>
+        <v>0.8673689365386963</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9236142635345459</v>
+        <v>0.972567081451416</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5324962139129639</v>
+        <v>0.4464418888092041</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4359691143035889</v>
+        <v>0.546367883682251</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4244639873504639</v>
+        <v>0.4397389888763428</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -4178,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4370980262756348</v>
+        <v>0.5386800765991211</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -4194,10 +4194,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.456904411315918</v>
+        <v>0.4451608657836914</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -4210,10 +4210,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4492101669311523</v>
+        <v>0.4454247951507568</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -4226,10 +4226,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.45722508430481</v>
+        <v>1.434035778045654</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -4242,10 +4242,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.54869818687439</v>
+        <v>1.496310949325562</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7918999195098877</v>
+        <v>0.7097480297088623</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6809170246124268</v>
+        <v>0.7973968982696533</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -4331,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7822360992431641</v>
+        <v>0.8633882999420166</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -4347,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8140327930450439</v>
+        <v>0.8679847717285156</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -4363,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4373068809509277</v>
+        <v>0.4911201000213623</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4415607452392578</v>
+        <v>0.4504837989807129</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4356300830841064</v>
+        <v>0.4237136840820312</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -4411,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4192550182342529</v>
+        <v>0.4227619171142578</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -4427,10 +4427,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4395861625671387</v>
+        <v>0.4740972518920898</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -4443,10 +4443,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4614689350128174</v>
+        <v>0.5505270957946777</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -4459,10 +4459,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.450492143630981</v>
+        <v>1.520599842071533</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -4475,10 +4475,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.497140169143677</v>
+        <v>1.516217947006226</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8054790496826172</v>
+        <v>0.8007051944732666</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -4507,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7044830322265625</v>
+        <v>0.7483408451080322</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7861471176147461</v>
+        <v>0.8820788860321045</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -4539,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7899158000946045</v>
+        <v>0.8529949188232422</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4499750137329102</v>
+        <v>0.4937717914581299</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5457611083984375</v>
+        <v>0.4481770992279053</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4450101852416992</v>
+        <v>0.5391380786895752</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4334471225738525</v>
+        <v>0.552905797958374</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -4619,10 +4619,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4796543121337891</v>
+        <v>0.4471747875213623</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -4635,10 +4635,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4503202438354492</v>
+        <v>0.4409892559051514</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -4651,10 +4651,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.501744031906128</v>
+        <v>1.323576927185059</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -4667,10 +4667,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.47802209854126</v>
+        <v>1.541368961334229</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_edge_test_results.xlsx
+++ b/client/test_results/filtered_edge_test_results.xlsx
@@ -7,7 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_10" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.010088920593262</v>
+        <v>2.405963897705078</v>
       </c>
       <c r="D2" t="n">
-        <v>115.378</v>
+        <v>117.55</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +490,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.999326944351196</v>
+        <v>2.353518962860107</v>
       </c>
       <c r="D3" t="n">
-        <v>115.378</v>
+        <v>117.55</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.353641033172607</v>
+        <v>2.657605886459351</v>
       </c>
       <c r="D4" t="n">
-        <v>37.554</v>
+        <v>39.726</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.361555814743042</v>
+        <v>2.653825044631958</v>
       </c>
       <c r="D5" t="n">
-        <v>37.554</v>
+        <v>39.726</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5129399299621582</v>
+        <v>0.4536728858947754</v>
       </c>
       <c r="D6" t="n">
-        <v>34.767</v>
+        <v>36.939</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4969792366027832</v>
+        <v>0.440040111541748</v>
       </c>
       <c r="D7" t="n">
-        <v>34.767</v>
+        <v>36.939</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5059220790863037</v>
+        <v>0.4360158443450928</v>
       </c>
       <c r="D8" t="n">
-        <v>34.103</v>
+        <v>36.275</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5021600723266602</v>
+        <v>0.4568860530853271</v>
       </c>
       <c r="D9" t="n">
-        <v>34.103</v>
+        <v>36.275</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>1.164942979812622</v>
+        <v>2.61545205116272</v>
       </c>
       <c r="D10" t="n">
-        <v>201.622</v>
+        <v>203.794</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>1.097680330276489</v>
+        <v>1.702348947525024</v>
       </c>
       <c r="D11" t="n">
-        <v>241.523</v>
+        <v>243.695</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>2.390480995178223</v>
+        <v>2.429917097091675</v>
       </c>
       <c r="D12" t="n">
-        <v>189.106</v>
+        <v>191.278</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +650,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>2.239223003387451</v>
+        <v>2.64115309715271</v>
       </c>
       <c r="D13" t="n">
-        <v>241.564</v>
+        <v>243.736</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +666,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.978825330734253</v>
+        <v>2.377383947372437</v>
       </c>
       <c r="D14" t="n">
-        <v>115.576</v>
+        <v>117.748</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +682,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>2.003884792327881</v>
+        <v>2.450518131256104</v>
       </c>
       <c r="D15" t="n">
-        <v>115.576</v>
+        <v>117.748</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>2.36372709274292</v>
+        <v>2.658048868179321</v>
       </c>
       <c r="D16" t="n">
-        <v>37.572</v>
+        <v>39.744</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>2.325971126556396</v>
+        <v>2.666698217391968</v>
       </c>
       <c r="D17" t="n">
-        <v>37.572</v>
+        <v>39.744</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6429259777069092</v>
+        <v>0.4559018611907959</v>
       </c>
       <c r="D18" t="n">
-        <v>34.965</v>
+        <v>37.137</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5046918392181396</v>
+        <v>0.4563140869140625</v>
       </c>
       <c r="D19" t="n">
-        <v>34.965</v>
+        <v>37.137</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +762,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.511991024017334</v>
+        <v>0.433682918548584</v>
       </c>
       <c r="D20" t="n">
-        <v>34.121</v>
+        <v>36.293</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5251882076263428</v>
+        <v>0.4497799873352051</v>
       </c>
       <c r="D21" t="n">
-        <v>34.121</v>
+        <v>36.293</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>1.214436769485474</v>
+        <v>1.405314922332764</v>
       </c>
       <c r="D22" t="n">
-        <v>202.266</v>
+        <v>204.438</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>1.167345762252808</v>
+        <v>1.354609251022339</v>
       </c>
       <c r="D23" t="n">
-        <v>1020.219</v>
+        <v>1022.391</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>2.491644859313965</v>
+        <v>2.501692056655884</v>
       </c>
       <c r="D24" t="n">
-        <v>174.565</v>
+        <v>176.737</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +842,3835 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>2.388396739959717</v>
+        <v>2.418482065200806</v>
       </c>
       <c r="D25" t="n">
-        <v>672.716</v>
+        <v>674.888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.479940176010132</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.351622343063354</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.672393083572388</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.660855054855347</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4511640071868896</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4406757354736328</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4481890201568604</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4351680278778076</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.34360408782959</v>
+      </c>
+      <c r="D10" t="n">
+        <v>203.794</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.281005144119263</v>
+      </c>
+      <c r="D11" t="n">
+        <v>243.695</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.399795055389404</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.479139089584351</v>
+      </c>
+      <c r="D13" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.348131895065308</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.351233959197998</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.653042078018188</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.634821176528931</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4452333450317383</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4464850425720215</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4414818286895752</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4403839111328125</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.405987024307251</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204.438</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.353215932846069</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1022.391</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.457422733306885</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.530839920043945</v>
+      </c>
+      <c r="D25" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.355105876922607</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.34465479850769</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.664284229278564</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.645481824874878</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4319491386413574</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4401962757110596</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4292917251586914</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4150679111480713</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.348413944244385</v>
+      </c>
+      <c r="D10" t="n">
+        <v>203.794</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.294218063354492</v>
+      </c>
+      <c r="D11" t="n">
+        <v>243.695</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.429895162582397</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.930947065353394</v>
+      </c>
+      <c r="D13" t="n">
+        <v>166.576</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.352014064788818</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.350886106491089</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.661458015441895</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.659628868103027</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4474117755889893</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4337410926818848</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4307219982147217</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4211111068725586</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.402905941009521</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204.438</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.354587078094482</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1022.391</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.537229061126709</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.652927875518799</v>
+      </c>
+      <c r="D25" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.353863000869751</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.342232942581177</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.654167175292969</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.653514862060547</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4418990612030029</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4510221481323242</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4315211772918701</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4319679737091064</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.339753866195679</v>
+      </c>
+      <c r="D10" t="n">
+        <v>203.794</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.276844024658203</v>
+      </c>
+      <c r="D11" t="n">
+        <v>243.695</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.381400108337402</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.393049955368042</v>
+      </c>
+      <c r="D13" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.349929809570312</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.370598793029785</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.671854019165039</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.657378196716309</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4430551528930664</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4527549743652344</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4294030666351318</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4333670139312744</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.403741121292114</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204.438</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.357964992523193</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1022.391</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.59057879447937</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.490185976028442</v>
+      </c>
+      <c r="D25" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.354935169219971</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.363702058792114</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.649018049240112</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.609545946121216</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4558331966400146</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4470670223236084</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4357190132141113</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4369900226593018</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.344109058380127</v>
+      </c>
+      <c r="D10" t="n">
+        <v>203.794</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.282127141952515</v>
+      </c>
+      <c r="D11" t="n">
+        <v>243.695</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.460728883743286</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.570903062820435</v>
+      </c>
+      <c r="D13" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.354455232620239</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.374158143997192</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.681712865829468</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.639303922653198</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4530758857727051</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4416477680206299</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.428473949432373</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4333839416503906</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.408716917037964</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204.438</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.363325834274292</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1022.391</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.537409782409668</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.886943101882935</v>
+      </c>
+      <c r="D25" t="n">
+        <v>597.728</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.354168891906738</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.358661890029907</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.658740282058716</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.627123117446899</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4529051780700684</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4428043365478516</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4359130859375</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4370689392089844</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.335973978042603</v>
+      </c>
+      <c r="D10" t="n">
+        <v>203.794</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.279306888580322</v>
+      </c>
+      <c r="D11" t="n">
+        <v>243.695</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.576267004013062</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.610877275466919</v>
+      </c>
+      <c r="D13" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.34657096862793</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.362406015396118</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.645916938781738</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.636865139007568</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4381492137908936</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4523231983184814</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4241518974304199</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4317388534545898</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.419122934341431</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204.438</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.349865913391113</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1022.391</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.463113069534302</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.574291944503784</v>
+      </c>
+      <c r="D25" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.354286909103394</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.355966091156006</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.663243055343628</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.62920069694519</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5962419509887695</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4537537097930908</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5296318531036377</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4152388572692871</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.345316886901855</v>
+      </c>
+      <c r="D10" t="n">
+        <v>203.794</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.275553703308105</v>
+      </c>
+      <c r="D11" t="n">
+        <v>243.695</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.364948987960815</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.563031911849976</v>
+      </c>
+      <c r="D13" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.333627939224243</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.353993892669678</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.662599086761475</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.658048152923584</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4315040111541748</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.439345121383667</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5681300163269043</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4343979358673096</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.403938055038452</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204.438</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.35704517364502</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1022.391</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.516418218612671</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.611532211303711</v>
+      </c>
+      <c r="D25" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.347792863845825</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.361162185668945</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.78586220741272</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.6525559425354</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4670281410217285</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5429472923278809</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4425680637359619</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4396400451660156</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.360183954238892</v>
+      </c>
+      <c r="D10" t="n">
+        <v>203.794</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.295292854309082</v>
+      </c>
+      <c r="D11" t="n">
+        <v>243.695</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.538369178771973</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.496588230133057</v>
+      </c>
+      <c r="D13" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.347568988800049</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.356917142868042</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.665690183639526</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.664944171905518</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4456760883331299</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4419019222259521</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4838290214538574</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.561582088470459</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.408995151519775</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204.438</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.356812953948975</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1022.391</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.663689851760864</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.613663911819458</v>
+      </c>
+      <c r="D25" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.355589866638184</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.345618009567261</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.650614023208618</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.699901103973389</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4484481811523438</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4459149837493896</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4212179183959961</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4387001991271973</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.348678827285767</v>
+      </c>
+      <c r="D10" t="n">
+        <v>203.794</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.28265905380249</v>
+      </c>
+      <c r="D11" t="n">
+        <v>243.695</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.377575874328613</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.512504100799561</v>
+      </c>
+      <c r="D13" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.345519781112671</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.345077037811279</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.750571966171265</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.662919998168945</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4493110179901123</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.457949161529541</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5452830791473389</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4373848438262939</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.404746055603027</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204.438</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.359295129776001</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1022.391</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.586003065109253</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.546707153320312</v>
+      </c>
+      <c r="D25" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.356225967407227</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.345779895782471</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.669509887695312</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.660873889923096</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4381229877471924</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4382510185241699</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.438173770904541</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4312088489532471</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.355703115463257</v>
+      </c>
+      <c r="D10" t="n">
+        <v>203.794</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.290094137191772</v>
+      </c>
+      <c r="D11" t="n">
+        <v>243.695</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.513510942459106</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.569947004318237</v>
+      </c>
+      <c r="D13" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.361515045166016</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.369513034820557</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.663181066513062</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.636475801467896</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4526500701904297</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4429359436035156</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4286808967590332</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4391739368438721</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.293</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.406896114349365</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204.438</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.35641074180603</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1022.391</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.458337783813477</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.559890031814575</v>
+      </c>
+      <c r="D25" t="n">
+        <v>674.888</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/filtered_edge_test_results.xlsx
+++ b/client/test_results/filtered_edge_test_results.xlsx
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7617321014404297</v>
+        <v>0.768467903137207</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.729219913482666</v>
+        <v>0.7005500793457031</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8207409381866455</v>
+        <v>0.8309469223022461</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8005528450012207</v>
+        <v>0.8535821437835693</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4528377056121826</v>
+        <v>0.4452061653137207</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4827702045440674</v>
+        <v>0.4352881908416748</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4436869621276855</v>
+        <v>0.4268121719360352</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.443120002746582</v>
+        <v>0.4272100925445557</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -602,7 +602,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4559230804443359</v>
+        <v>0.5140669345855713</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -618,7 +618,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4517247676849365</v>
+        <v>0.4500288963317871</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -634,7 +634,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.426597833633423</v>
+        <v>1.482993125915527</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -650,7 +650,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.603701829910278</v>
+        <v>1.538291931152344</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.715224027633667</v>
+        <v>0.7446081638336182</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.052669286727905</v>
+        <v>0.729327917098999</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.806657075881958</v>
+        <v>0.8500900268554688</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8143250942230225</v>
+        <v>0.8584733009338379</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4343390464782715</v>
+        <v>0.4432418346405029</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.46697998046875</v>
+        <v>0.5150749683380127</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5973398685455322</v>
+        <v>0.4360859394073486</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4433858394622803</v>
+        <v>0.4430880546569824</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -794,7 +794,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4684822559356689</v>
+        <v>0.5372240543365479</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -810,7 +810,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4305591583251953</v>
+        <v>0.4385030269622803</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -826,7 +826,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.748358964920044</v>
+        <v>1.545920848846436</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -842,7 +842,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.733345031738281</v>
+        <v>1.635743856430054</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7918388843536377</v>
+        <v>0.7643630504608154</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7223420143127441</v>
+        <v>0.8351569175720215</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.809999942779541</v>
+        <v>0.8512461185455322</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7996065616607666</v>
+        <v>0.8802499771118164</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4312350749969482</v>
+        <v>0.4403667449951172</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.430387020111084</v>
+        <v>0.4524457454681396</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4300971031188965</v>
+        <v>0.4398810863494873</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.434575080871582</v>
+        <v>0.4480628967285156</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -1027,7 +1027,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5472702980041504</v>
+        <v>0.4360389709472656</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -1043,7 +1043,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4872658252716064</v>
+        <v>0.4329400062561035</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -1059,7 +1059,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.589559078216553</v>
+        <v>1.382367134094238</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -1075,7 +1075,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.676429033279419</v>
+        <v>1.559841871261597</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7228212356567383</v>
+        <v>0.7325539588928223</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8148071765899658</v>
+        <v>0.7218928337097168</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7968566417694092</v>
+        <v>0.8834488391876221</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8045198917388916</v>
+        <v>0.8479259014129639</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4470019340515137</v>
+        <v>0.4441888332366943</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4536788463592529</v>
+        <v>0.459434986114502</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4269273281097412</v>
+        <v>0.4642419815063477</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4175541400909424</v>
+        <v>0.4539928436279297</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -1219,7 +1219,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5536088943481445</v>
+        <v>0.5169799327850342</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -1235,7 +1235,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4614181518554688</v>
+        <v>0.4984157085418701</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -1251,7 +1251,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.795760154724121</v>
+        <v>1.658828020095825</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -1267,7 +1267,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.803592205047607</v>
+        <v>1.921097993850708</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8053412437438965</v>
+        <v>0.7101550102233887</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7322161197662354</v>
+        <v>0.7375359535217285</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8058209419250488</v>
+        <v>0.855914831161499</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7885959148406982</v>
+        <v>0.8551528453826904</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4377758502960205</v>
+        <v>0.4524929523468018</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4488749504089355</v>
+        <v>0.424630880355835</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4728450775146484</v>
+        <v>0.4302301406860352</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4583809375762939</v>
+        <v>0.4569671154022217</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -1452,7 +1452,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8359930515289307</v>
+        <v>0.4308958053588867</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -1468,7 +1468,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4454100131988525</v>
+        <v>0.4597256183624268</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -1484,7 +1484,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.513051748275757</v>
+        <v>1.343495845794678</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -1500,7 +1500,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.704191446304321</v>
+        <v>1.543227195739746</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7414979934692383</v>
+        <v>0.7260928153991699</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7229287624359131</v>
+        <v>0.7538070678710938</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7962322235107422</v>
+        <v>0.8395881652832031</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8156599998474121</v>
+        <v>0.8537881374359131</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4420959949493408</v>
+        <v>0.4276998043060303</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4396440982818604</v>
+        <v>0.4371359348297119</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4173009395599365</v>
+        <v>0.4177820682525635</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5433390140533447</v>
+        <v>0.5188419818878174</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -1644,7 +1644,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4470763206481934</v>
+        <v>0.4396069049835205</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -1660,7 +1660,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4592001438140869</v>
+        <v>0.4456031322479248</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -1676,7 +1676,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.765062093734741</v>
+        <v>1.505052804946899</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -1692,7 +1692,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.701011180877686</v>
+        <v>1.63448691368103</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7486629486083984</v>
+        <v>0.8438897132873535</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5531818866729736</v>
+        <v>0.7077560424804688</v>
       </c>
       <c r="D3" t="n">
-        <v>38.894</v>
+        <v>116.054</v>
       </c>
     </row>
     <row r="4">
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7936069965362549</v>
+        <v>0.8496232032775879</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7984800338745117</v>
+        <v>0.8605959415435791</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4291448593139648</v>
+        <v>0.4528398513793945</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4348223209381104</v>
+        <v>0.480029821395874</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4348189830780029</v>
+        <v>0.4299502372741699</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4501359462738037</v>
+        <v>0.4322969913482666</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -1877,7 +1877,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4584918022155762</v>
+        <v>0.5798678398132324</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -1893,7 +1893,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4328088760375977</v>
+        <v>0.4391422271728516</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -1909,7 +1909,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.12064003944397</v>
+        <v>1.393967151641846</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -1925,7 +1925,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.667289018630981</v>
+        <v>1.55518102645874</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7169966697692871</v>
+        <v>0.7315959930419922</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8130478858947754</v>
+        <v>0.7044351100921631</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7994968891143799</v>
+        <v>0.8489279747009277</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8202769756317139</v>
+        <v>0.8669109344482422</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4601411819458008</v>
+        <v>0.4612700939178467</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4408588409423828</v>
+        <v>0.5574440956115723</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7022190093994141</v>
+        <v>0.420421838760376</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4448320865631104</v>
+        <v>0.4333300590515137</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -2069,7 +2069,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4546828269958496</v>
+        <v>0.4369280338287354</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -2085,7 +2085,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4543259143829346</v>
+        <v>0.4491300582885742</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -2101,7 +2101,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.635711908340454</v>
+        <v>1.393048048019409</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -2117,7 +2117,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.69697117805481</v>
+        <v>1.705633163452148</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7360141277313232</v>
+        <v>0.7066881656646729</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7223219871520996</v>
+        <v>0.7145001888275146</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.841094970703125</v>
+        <v>0.8381550312042236</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8117821216583252</v>
+        <v>0.9457197189331055</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4341518878936768</v>
+        <v>0.4668822288513184</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4365880489349365</v>
+        <v>0.4441671371459961</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4404470920562744</v>
+        <v>0.4250140190124512</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.438521146774292</v>
+        <v>0.426203727722168</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -2302,7 +2302,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4400620460510254</v>
+        <v>0.4453411102294922</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -2318,7 +2318,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5015759468078613</v>
+        <v>0.5651099681854248</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -2334,7 +2334,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.488061189651489</v>
+        <v>1.600487947463989</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -2350,7 +2350,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.617236137390137</v>
+        <v>1.549252986907959</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7328786849975586</v>
+        <v>0.7167882919311523</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7236678600311279</v>
+        <v>0.7204189300537109</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.806732177734375</v>
+        <v>0.8610901832580566</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.803473949432373</v>
+        <v>0.9471008777618408</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4520950317382812</v>
+        <v>0.4305212497711182</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4392120838165283</v>
+        <v>0.4464292526245117</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4247832298278809</v>
+        <v>0.4295039176940918</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4273681640625</v>
+        <v>0.4198422431945801</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -2494,7 +2494,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4563930034637451</v>
+        <v>0.4503371715545654</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -2510,7 +2510,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5467019081115723</v>
+        <v>0.4461402893066406</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -2526,7 +2526,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.669753074645996</v>
+        <v>1.345173120498657</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -2542,7 +2542,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.694876194000244</v>
+        <v>1.624275922775269</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.723336935043335</v>
+        <v>0.7438740730285645</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7233469486236572</v>
+        <v>0.7985758781433105</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8128471374511719</v>
+        <v>0.8862500190734863</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7970008850097656</v>
+        <v>0.8549470901489258</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4447460174560547</v>
+        <v>0.4567680358886719</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.559614896774292</v>
+        <v>0.4347970485687256</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4338850975036621</v>
+        <v>0.4268989562988281</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5454940795898438</v>
+        <v>0.42893385887146</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -2727,7 +2727,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4440958499908447</v>
+        <v>0.4464950561523438</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -2743,7 +2743,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4398448467254639</v>
+        <v>0.4763419628143311</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -2759,7 +2759,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.443542003631592</v>
+        <v>1.513979911804199</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -2775,7 +2775,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.656313896179199</v>
+        <v>1.573379755020142</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -2791,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7227718830108643</v>
+        <v>0.7128520011901855</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7213246822357178</v>
+        <v>0.7928950786590576</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -2823,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7807650566101074</v>
+        <v>0.8572709560394287</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8043599128723145</v>
+        <v>0.8479108810424805</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4533030986785889</v>
+        <v>0.4374120235443115</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4395041465759277</v>
+        <v>0.4678306579589844</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4081211090087891</v>
+        <v>0.4357991218566895</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4445259571075439</v>
+        <v>0.4161877632141113</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -2919,7 +2919,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5342531204223633</v>
+        <v>0.4520378112792969</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -2935,7 +2935,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4522240161895752</v>
+        <v>0.4427640438079834</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -2951,7 +2951,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.443988800048828</v>
+        <v>1.418689727783203</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -2967,7 +2967,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.682898044586182</v>
+        <v>1.677541971206665</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7206289768218994</v>
+        <v>0.7285940647125244</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.71685791015625</v>
+        <v>0.8232238292694092</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7969567775726318</v>
+        <v>0.8515481948852539</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7920310497283936</v>
+        <v>0.8453550338745117</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4399309158325195</v>
+        <v>0.4360120296478271</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4363811016082764</v>
+        <v>0.4550867080688477</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4107980728149414</v>
+        <v>0.4360530376434326</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4851441383361816</v>
+        <v>0.4419929981231689</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -3152,7 +3152,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4436101913452148</v>
+        <v>0.4348990917205811</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -3168,7 +3168,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4526340961456299</v>
+        <v>0.4527740478515625</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -3184,7 +3184,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.553335905075073</v>
+        <v>1.558626174926758</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -3200,7 +3200,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.663644075393677</v>
+        <v>1.498437166213989</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7478759288787842</v>
+        <v>0.7548539638519287</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.719127893447876</v>
+        <v>0.720099925994873</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.791907787322998</v>
+        <v>0.8432393074035645</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8023369312286377</v>
+        <v>0.8650047779083252</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4514250755310059</v>
+        <v>0.4477980136871338</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4524962902069092</v>
+        <v>0.4422698020935059</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4329190254211426</v>
+        <v>0.431168794631958</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4340429306030273</v>
+        <v>0.4305219650268555</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -3344,7 +3344,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5435128211975098</v>
+        <v>0.4393658638000488</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -3360,7 +3360,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4359018802642822</v>
+        <v>0.4742319583892822</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -3376,7 +3376,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.712271213531494</v>
+        <v>1.341464042663574</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -3392,7 +3392,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.70653510093689</v>
+        <v>1.596540212631226</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>
@@ -3449,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7229981422424316</v>
+        <v>0.834867000579834</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.723729133605957</v>
+        <v>0.7226848602294922</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7882058620452881</v>
+        <v>0.8540101051330566</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -3497,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8055360317230225</v>
+        <v>0.840120792388916</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.464946985244751</v>
+        <v>0.457103967666626</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4663419723510742</v>
+        <v>0.4726130962371826</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6103527545928955</v>
+        <v>0.4287350177764893</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -3561,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4297142028808594</v>
+        <v>0.5517868995666504</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -3577,7 +3577,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4367060661315918</v>
+        <v>0.4371531009674072</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -3593,7 +3593,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.434755802154541</v>
+        <v>0.4518723487854004</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -3609,7 +3609,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.48914098739624</v>
+        <v>1.545166015625</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -3625,7 +3625,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.638744115829468</v>
+        <v>1.627271175384521</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -3641,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7064118385314941</v>
+        <v>0.7234618663787842</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7119028568267822</v>
+        <v>0.7177119255065918</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8157250881195068</v>
+        <v>0.8506801128387451</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8143987655639648</v>
+        <v>0.8482990264892578</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4410860538482666</v>
+        <v>0.4497339725494385</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4469969272613525</v>
+        <v>0.6237938404083252</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4348740577697754</v>
+        <v>0.4349868297576904</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.452498197555542</v>
+        <v>0.4441273212432861</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -3769,7 +3769,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.474621057510376</v>
+        <v>0.435823917388916</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -3785,10 +3785,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4482660293579102</v>
+        <v>0.7771360874176025</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>949.2619999999999</v>
       </c>
     </row>
     <row r="24">
@@ -3801,7 +3801,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.628683805465698</v>
+        <v>1.373332977294922</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -3817,7 +3817,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.816540956497192</v>
+        <v>1.549558162689209</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.729590892791748</v>
+        <v>0.7290158271789551</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -3890,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7128260135650635</v>
+        <v>0.7103769779205322</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7626640796661377</v>
+        <v>0.8650529384613037</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8021571636199951</v>
+        <v>0.8460409641265869</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5019071102142334</v>
+        <v>0.439702033996582</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4324789047241211</v>
+        <v>0.4459607601165771</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -3970,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4536278247833252</v>
+        <v>0.4336888790130615</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4335329532623291</v>
+        <v>0.4340019226074219</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -4002,7 +4002,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4499540328979492</v>
+        <v>0.443411111831665</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -4018,7 +4018,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4501199722290039</v>
+        <v>0.4558930397033691</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -4034,7 +4034,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.54996395111084</v>
+        <v>1.590989828109741</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -4050,7 +4050,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.699536085128784</v>
+        <v>1.609909057617188</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7720446586608887</v>
+        <v>0.7190248966217041</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7027120590209961</v>
+        <v>0.7128338813781738</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8027279376983643</v>
+        <v>0.9687139987945557</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8935980796813965</v>
+        <v>0.856738805770874</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4377727508544922</v>
+        <v>0.4215538501739502</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4491152763366699</v>
+        <v>0.4521870613098145</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4324839115142822</v>
+        <v>0.4517650604248047</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -4178,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4280891418457031</v>
+        <v>0.4378609657287598</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -4194,7 +4194,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.445598840713501</v>
+        <v>0.4556353092193604</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -4210,7 +4210,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4480869770050049</v>
+        <v>0.4481561183929443</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -4226,7 +4226,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.339907884597778</v>
+        <v>1.409686088562012</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -4242,7 +4242,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.750637054443359</v>
+        <v>1.532426118850708</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7343788146972656</v>
+        <v>0.7527077198028564</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7907400131225586</v>
+        <v>0.725675106048584</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -4331,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9178409576416016</v>
+        <v>0.8627638816833496</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -4347,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7778351306915283</v>
+        <v>0.8620810508728027</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -4363,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4369809627532959</v>
+        <v>0.4404160976409912</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4568688869476318</v>
+        <v>0.4631149768829346</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4486730098724365</v>
+        <v>0.4362268447875977</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -4411,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4687528610229492</v>
+        <v>0.4312293529510498</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -4427,7 +4427,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.435161828994751</v>
+        <v>0.4368109703063965</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -4443,7 +4443,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4347429275512695</v>
+        <v>0.4605677127838135</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -4459,7 +4459,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.713119029998779</v>
+        <v>1.37999701499939</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -4475,7 +4475,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.550788879394531</v>
+        <v>1.604934215545654</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -4491,10 +4491,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5352091789245605</v>
+        <v>0.7655847072601318</v>
       </c>
       <c r="D14" t="n">
-        <v>39.092</v>
+        <v>116.252</v>
       </c>
     </row>
     <row r="15">
@@ -4507,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6876399517059326</v>
+        <v>0.8209772109985352</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9034311771392822</v>
+        <v>0.8819971084594727</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -4539,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7991931438446045</v>
+        <v>0.8489348888397217</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4561522006988525</v>
+        <v>0.4649467468261719</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4555270671844482</v>
+        <v>0.4709630012512207</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4391739368438721</v>
+        <v>0.4339659214019775</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4295217990875244</v>
+        <v>0.44635009765625</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -4619,7 +4619,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4338829517364502</v>
+        <v>0.4516830444335938</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -4635,7 +4635,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4248931407928467</v>
+        <v>0.4444200992584229</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -4651,7 +4651,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.486860036849976</v>
+        <v>1.603944778442383</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -4667,7 +4667,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.849902868270874</v>
+        <v>1.595593929290771</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>

--- a/client/test_results/filtered_edge_test_results.xlsx
+++ b/client/test_results/filtered_edge_test_results.xlsx
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.801832914352417</v>
+        <v>0.7337629795074463</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7248969078063965</v>
+        <v>0.7254571914672852</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8263649940490723</v>
+        <v>0.8552210330963135</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7931210994720459</v>
+        <v>0.8534970283508301</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4521758556365967</v>
+        <v>0.4360499382019043</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4369120597839355</v>
+        <v>0.4442160129547119</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4278898239135742</v>
+        <v>0.4378917217254639</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.434053897857666</v>
+        <v>0.4443049430847168</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -602,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4424519538879395</v>
+        <v>0.5351922512054443</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -618,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5393590927124023</v>
+        <v>0.4357380867004395</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -634,7 +634,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.322869062423706</v>
+        <v>1.467254161834717</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -650,7 +650,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.576851844787598</v>
+        <v>1.676666736602783</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7363560199737549</v>
+        <v>0.7371799945831299</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7230651378631592</v>
+        <v>0.7697618007659912</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7991538047790527</v>
+        <v>0.8680150508880615</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7961931228637695</v>
+        <v>0.8435239791870117</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4387421607971191</v>
+        <v>0.4598891735076904</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4367170333862305</v>
+        <v>0.4480738639831543</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4282269477844238</v>
+        <v>0.5400168895721436</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4376909732818604</v>
+        <v>0.4456408023834229</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -794,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4512598514556885</v>
+        <v>0.4527239799499512</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -810,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4484550952911377</v>
+        <v>0.4455349445343018</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -826,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.504339933395386</v>
+        <v>1.692713975906372</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -842,10 +842,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.698383092880249</v>
+        <v>1.685333967208862</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7150199413299561</v>
+        <v>0.7189271450042725</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7363951206207275</v>
+        <v>0.7303917407989502</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8002588748931885</v>
+        <v>0.8538749217987061</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8007817268371582</v>
+        <v>0.8506107330322266</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4347529411315918</v>
+        <v>0.4720170497894287</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4522509574890137</v>
+        <v>0.4701058864593506</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4288778305053711</v>
+        <v>0.4527320861816406</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4696381092071533</v>
+        <v>0.4454190731048584</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -1027,10 +1027,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4575350284576416</v>
+        <v>0.4404659271240234</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -1043,10 +1043,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4474287033081055</v>
+        <v>0.4435689449310303</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -1059,7 +1059,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.514108180999756</v>
+        <v>1.633869171142578</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -1075,7 +1075,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.667012929916382</v>
+        <v>1.731290102005005</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7390427589416504</v>
+        <v>0.7515022754669189</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.195795774459839</v>
+        <v>0.741894006729126</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7952208518981934</v>
+        <v>0.8600308895111084</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.814857006072998</v>
+        <v>0.8601100444793701</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4459199905395508</v>
+        <v>0.4321579933166504</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4420340061187744</v>
+        <v>0.4380497932434082</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.436737060546875</v>
+        <v>0.4358048439025879</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4237091541290283</v>
+        <v>0.463679313659668</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -1219,10 +1219,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4536607265472412</v>
+        <v>0.4625589847564697</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -1235,10 +1235,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4438009262084961</v>
+        <v>0.4501669406890869</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -1251,10 +1251,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.32834005355835</v>
+        <v>1.561280965805054</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -1267,10 +1267,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.70422887802124</v>
+        <v>1.718646049499512</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7989928722381592</v>
+        <v>0.7490019798278809</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7088730335235596</v>
+        <v>0.7139201164245605</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8116409778594971</v>
+        <v>0.853445291519165</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8045368194580078</v>
+        <v>0.8500561714172363</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4503340721130371</v>
+        <v>0.4488699436187744</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4438412189483643</v>
+        <v>0.4526901245117188</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4366128444671631</v>
+        <v>0.4532909393310547</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4337148666381836</v>
+        <v>0.4457991123199463</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -1452,10 +1452,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4521160125732422</v>
+        <v>0.4204730987548828</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -1468,10 +1468,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4734060764312744</v>
+        <v>0.4869918823242188</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -1484,7 +1484,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.433132171630859</v>
+        <v>1.664709806442261</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -1500,7 +1500,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.505788803100586</v>
+        <v>1.641036987304688</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -1516,10 +1516,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5380756855010986</v>
+        <v>0.741307258605957</v>
       </c>
       <c r="D14" t="n">
-        <v>39.092</v>
+        <v>116.252</v>
       </c>
     </row>
     <row r="15">
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7280139923095703</v>
+        <v>0.7459940910339355</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7748720645904541</v>
+        <v>0.87003493309021</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8274250030517578</v>
+        <v>0.8660447597503662</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4337000846862793</v>
+        <v>0.4842641353607178</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4383788108825684</v>
+        <v>0.4527058601379395</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4466609954833984</v>
+        <v>0.462475061416626</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4254012107849121</v>
+        <v>0.4252679347991943</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -1644,10 +1644,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4343581199645996</v>
+        <v>0.4536468982696533</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -1660,10 +1660,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5784211158752441</v>
+        <v>0.4543511867523193</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -1676,10 +1676,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.900459051132202</v>
+        <v>1.489897012710571</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -1692,10 +1692,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.608465909957886</v>
+        <v>1.688598871231079</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7154929637908936</v>
+        <v>0.7352368831634521</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7190008163452148</v>
+        <v>0.7192208766937256</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7996630668640137</v>
+        <v>0.8724000453948975</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7981410026550293</v>
+        <v>0.9739389419555664</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4600288867950439</v>
+        <v>0.4314501285552979</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4428651332855225</v>
+        <v>0.5010879039764404</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4569659233093262</v>
+        <v>0.5269312858581543</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5245711803436279</v>
+        <v>0.4569921493530273</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -1877,10 +1877,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4709749221801758</v>
+        <v>0.4315831661224365</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -1893,10 +1893,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4436092376708984</v>
+        <v>0.5532870292663574</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -1909,7 +1909,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.350197076797485</v>
+        <v>1.678910970687866</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -1925,7 +1925,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.559859037399292</v>
+        <v>1.776772022247314</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7278330326080322</v>
+        <v>0.8511731624603271</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7501187324523926</v>
+        <v>0.7739529609680176</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7963447570800781</v>
+        <v>0.9081270694732666</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7802140712738037</v>
+        <v>0.8614139556884766</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5793209075927734</v>
+        <v>0.4620406627655029</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4466760158538818</v>
+        <v>0.554893970489502</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4343891143798828</v>
+        <v>0.4310929775238037</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5292539596557617</v>
+        <v>0.4396638870239258</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -2069,10 +2069,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4493241310119629</v>
+        <v>0.4408009052276611</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -2085,10 +2085,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4809980392456055</v>
+        <v>0.465162992477417</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -2101,10 +2101,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.324910879135132</v>
+        <v>1.482468128204346</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -2117,10 +2117,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.578042030334473</v>
+        <v>1.602957963943481</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7232201099395752</v>
+        <v>0.711118221282959</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7260699272155762</v>
+        <v>0.7130529880523682</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8321912288665771</v>
+        <v>1.095294952392578</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7982437610626221</v>
+        <v>0.8482270240783691</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4716348648071289</v>
+        <v>0.4511759281158447</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4491989612579346</v>
+        <v>0.4358959197998047</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4385597705841064</v>
+        <v>0.4307398796081543</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4389758110046387</v>
+        <v>0.4245660305023193</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -2302,10 +2302,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4431662559509277</v>
+        <v>0.4260590076446533</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -2318,10 +2318,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4464812278747559</v>
+        <v>0.4573602676391602</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -2334,7 +2334,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.549257040023804</v>
+        <v>1.709728002548218</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -2350,7 +2350,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.57011890411377</v>
+        <v>1.683492183685303</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7360117435455322</v>
+        <v>0.75730299949646</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7301502227783203</v>
+        <v>0.7229559421539307</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8170051574707031</v>
+        <v>1.126024961471558</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8039469718933105</v>
+        <v>0.8611879348754883</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4417431354522705</v>
+        <v>0.5281598567962646</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5348269939422607</v>
+        <v>0.4934680461883545</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5920629501342773</v>
+        <v>0.4225497245788574</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4305069446563721</v>
+        <v>0.4288010597229004</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -2494,10 +2494,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4526169300079346</v>
+        <v>0.4615890979766846</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -2510,10 +2510,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4431281089782715</v>
+        <v>0.4754650592803955</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -2526,10 +2526,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.373753070831299</v>
+        <v>1.251173257827759</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -2542,10 +2542,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.637137889862061</v>
+        <v>1.676352024078369</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7532889842987061</v>
+        <v>0.7011740207672119</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7119801044464111</v>
+        <v>0.7249929904937744</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.827160120010376</v>
+        <v>0.8432540893554688</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8043923377990723</v>
+        <v>0.9399168491363525</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5058591365814209</v>
+        <v>0.5617098808288574</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4586100578308105</v>
+        <v>0.4447078704833984</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5532982349395752</v>
+        <v>0.492379903793335</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4419240951538086</v>
+        <v>0.5462472438812256</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -2727,10 +2727,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4489080905914307</v>
+        <v>0.4336702823638916</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2743,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4537510871887207</v>
+        <v>0.4397401809692383</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -2759,7 +2759,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.594336986541748</v>
+        <v>1.631124973297119</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -2775,7 +2775,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.547238826751709</v>
+        <v>1.660350322723389</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -2791,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7323153018951416</v>
+        <v>0.7274909019470215</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7190520763397217</v>
+        <v>0.7334311008453369</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -2823,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.816234827041626</v>
+        <v>0.8795597553253174</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.823512077331543</v>
+        <v>0.8563230037689209</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5277328491210938</v>
+        <v>0.5752410888671875</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4658260345458984</v>
+        <v>0.4689269065856934</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4492459297180176</v>
+        <v>0.4238128662109375</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4338910579681396</v>
+        <v>0.4365649223327637</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -2919,10 +2919,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4534130096435547</v>
+        <v>0.4365189075469971</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -2935,10 +2935,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4420230388641357</v>
+        <v>0.4803566932678223</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -2951,10 +2951,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.331115007400513</v>
+        <v>1.522166013717651</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -2967,10 +2967,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.663437843322754</v>
+        <v>1.673427820205688</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7402310371398926</v>
+        <v>0.7077670097351074</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7392387390136719</v>
+        <v>0.723013162612915</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8777339458465576</v>
+        <v>0.8344318866729736</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8076648712158203</v>
+        <v>0.865973949432373</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4609169960021973</v>
+        <v>0.4599678516387939</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4257831573486328</v>
+        <v>0.4646508693695068</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4497652053833008</v>
+        <v>0.4649291038513184</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4330968856811523</v>
+        <v>0.4426367282867432</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -3152,10 +3152,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.60288405418396</v>
+        <v>0.4646329879760742</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -3168,10 +3168,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4512677192687988</v>
+        <v>0.4497449398040771</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -3184,7 +3184,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.410642862319946</v>
+        <v>1.432050943374634</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -3200,7 +3200,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.572535991668701</v>
+        <v>1.656353950500488</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7176198959350586</v>
+        <v>0.7490558624267578</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8144330978393555</v>
+        <v>0.7476890087127686</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8047559261322021</v>
+        <v>0.8601930141448975</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8123190402984619</v>
+        <v>0.8757476806640625</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.445044994354248</v>
+        <v>0.5447921752929688</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4609801769256592</v>
+        <v>0.453176736831665</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4416429996490479</v>
+        <v>0.4443368911743164</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4363420009613037</v>
+        <v>0.5139870643615723</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -3344,10 +3344,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4528839588165283</v>
+        <v>0.4578859806060791</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -3360,10 +3360,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.444256067276001</v>
+        <v>0.432239294052124</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -3376,10 +3376,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.335762977600098</v>
+        <v>1.620630025863647</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -3392,10 +3392,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.662590980529785</v>
+        <v>1.579171180725098</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
@@ -3449,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8139681816101074</v>
+        <v>0.7117519378662109</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.753007173538208</v>
+        <v>0.7257969379425049</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.798471212387085</v>
+        <v>0.8690850734710693</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -3497,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8345088958740234</v>
+        <v>0.9294519424438477</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4513700008392334</v>
+        <v>0.4594340324401855</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4413771629333496</v>
+        <v>0.5605671405792236</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4319841861724854</v>
+        <v>0.4509928226470947</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -3561,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4519350528717041</v>
+        <v>0.4407732486724854</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -3577,10 +3577,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4541220664978027</v>
+        <v>0.4332520961761475</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -3593,10 +3593,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4721791744232178</v>
+        <v>0.4913399219512939</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -3609,7 +3609,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.456155061721802</v>
+        <v>1.65000581741333</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -3625,7 +3625,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.541233777999878</v>
+        <v>1.755403995513916</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -3641,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8610348701477051</v>
+        <v>0.7387237548828125</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7423989772796631</v>
+        <v>0.7279133796691895</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7967259883880615</v>
+        <v>0.8658211231231689</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8218517303466797</v>
+        <v>0.8806858062744141</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4368507862091064</v>
+        <v>0.4418971538543701</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4798760414123535</v>
+        <v>0.4390740394592285</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4564239978790283</v>
+        <v>0.4435501098632812</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4308719635009766</v>
+        <v>0.4671721458435059</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -3769,10 +3769,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4491000175476074</v>
+        <v>0.4462718963623047</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -3785,10 +3785,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4596118927001953</v>
+        <v>0.4584090709686279</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -3801,10 +3801,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.412752151489258</v>
+        <v>1.400614023208618</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -3817,10 +3817,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.653960943222046</v>
+        <v>1.668225049972534</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8026540279388428</v>
+        <v>0.8195209503173828</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -3890,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7437839508056641</v>
+        <v>0.7572827339172363</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8142890930175781</v>
+        <v>0.8544230461120605</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8108310699462891</v>
+        <v>0.8319759368896484</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4456870555877686</v>
+        <v>0.4807891845703125</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4331469535827637</v>
+        <v>0.464484691619873</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -3970,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4348227977752686</v>
+        <v>0.4311702251434326</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4419040679931641</v>
+        <v>0.4381072521209717</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -4002,10 +4002,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4466040134429932</v>
+        <v>0.4633388519287109</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -4018,10 +4018,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4578819274902344</v>
+        <v>0.4200820922851562</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -4034,7 +4034,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.536247253417969</v>
+        <v>1.699539184570312</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -4050,7 +4050,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.552286148071289</v>
+        <v>1.699956893920898</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7294471263885498</v>
+        <v>0.7383148670196533</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.705650806427002</v>
+        <v>0.8710091114044189</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7906501293182373</v>
+        <v>0.8483760356903076</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8123712539672852</v>
+        <v>0.8943338394165039</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4620649814605713</v>
+        <v>0.4585092067718506</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4461739063262939</v>
+        <v>0.4386107921600342</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.432769775390625</v>
+        <v>0.4353859424591064</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -4178,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4219510555267334</v>
+        <v>0.4366381168365479</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -4194,10 +4194,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4518141746520996</v>
+        <v>0.4921929836273193</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -4210,10 +4210,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4491839408874512</v>
+        <v>0.4529979228973389</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -4226,10 +4226,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.330737352371216</v>
+        <v>1.461925745010376</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -4242,10 +4242,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.743377923965454</v>
+        <v>1.692693948745728</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7450370788574219</v>
+        <v>0.8307271003723145</v>
       </c>
       <c r="D2" t="n">
         <v>116.054</v>
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7145071029663086</v>
+        <v>0.7319419384002686</v>
       </c>
       <c r="D3" t="n">
         <v>116.054</v>
@@ -4331,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7899150848388672</v>
+        <v>0.8461062908172607</v>
       </c>
       <c r="D4" t="n">
         <v>38.23</v>
@@ -4347,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8043613433837891</v>
+        <v>0.8625552654266357</v>
       </c>
       <c r="D5" t="n">
         <v>38.23</v>
@@ -4363,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4308710098266602</v>
+        <v>0.4427468776702881</v>
       </c>
       <c r="D6" t="n">
         <v>36.939</v>
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4353327751159668</v>
+        <v>0.4588038921356201</v>
       </c>
       <c r="D7" t="n">
         <v>36.939</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.429983377456665</v>
+        <v>0.4290139675140381</v>
       </c>
       <c r="D8" t="n">
         <v>36.275</v>
@@ -4411,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4274559020996094</v>
+        <v>0.4449379444122314</v>
       </c>
       <c r="D9" t="n">
         <v>36.275</v>
@@ -4427,10 +4427,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4619741439819336</v>
+        <v>0.5717577934265137</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -4443,10 +4443,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4411609172821045</v>
+        <v>0.4775002002716064</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -4459,7 +4459,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.540398120880127</v>
+        <v>1.536219835281372</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -4475,7 +4475,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.555435180664062</v>
+        <v>1.663938999176025</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6919090747833252</v>
+        <v>0.8243577480316162</v>
       </c>
       <c r="D14" t="n">
         <v>116.252</v>
@@ -4507,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7204480171203613</v>
+        <v>0.8360860347747803</v>
       </c>
       <c r="D15" t="n">
         <v>116.252</v>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7953569889068604</v>
+        <v>0.8890697956085205</v>
       </c>
       <c r="D16" t="n">
         <v>38.248</v>
@@ -4539,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8120150566101074</v>
+        <v>0.8589072227478027</v>
       </c>
       <c r="D17" t="n">
         <v>38.248</v>
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4341781139373779</v>
+        <v>0.4433791637420654</v>
       </c>
       <c r="D18" t="n">
         <v>37.137</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4318509101867676</v>
+        <v>0.474440336227417</v>
       </c>
       <c r="D19" t="n">
         <v>37.137</v>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4194772243499756</v>
+        <v>0.439197301864624</v>
       </c>
       <c r="D20" t="n">
         <v>36.293</v>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4271800518035889</v>
+        <v>0.4203681945800781</v>
       </c>
       <c r="D21" t="n">
         <v>36.293</v>
@@ -4619,10 +4619,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4682750701904297</v>
+        <v>0.445361852645874</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -4635,10 +4635,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4245951175689697</v>
+        <v>0.5354549884796143</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -4651,10 +4651,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.321456909179688</v>
+        <v>1.573312044143677</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -4667,10 +4667,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.518212795257568</v>
+        <v>1.609606981277466</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
